--- a/Documentation/Rules.xlsx
+++ b/Documentation/Rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\Documents\Visual Studio 2022\Projects\BarbarianPrince2\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5D6315-C9EB-428A-96A2-25FA7FB7FEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E851EC-3896-4ABC-8040-D071DADF1EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="438">
   <si>
     <t>r203</t>
   </si>
@@ -199,16 +199,6 @@
   </si>
   <si>
     <t>r219</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r201 Characters&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Each character in the game has a combat skill, an endurance value, and a wealth code. Each is rated numerically, with higher numbers being better. If no wealth code is given, it is presumed to be zero.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your party includes yourself
- &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR202' Content='r202' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-;  any followers who join your 'party'; and finally any men, women, creatures, and animals encountered in the course of the game. Characters can be friendly or hostile, intelligent or unintelligent.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;When a character joins your party, their vital statistics are noted. You can voluntarily dismiss or abandon members of your party if you wish (sometimes expedient when making an escape or when food/money is short). Any characters encountered simply go on thier way and disappear from the game unless they join your party.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;To determine your own personal characteristics at the start of the game, see
- &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR202a' Content='r202' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r204 Travel&lt;/Bold&gt;
@@ -3978,6 +3968,26 @@
  &lt;InlineUIContainer&gt;&lt;Button Content='t207' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
  and roll one die.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Using the appropriate line for the terrain type you occupy, read across to the Event References column and use the column listed for that die roll. This will produce a Travel Event Reference specified in the table.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r201 Characters&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Each character in the game has a combat skill, an endurance value, and a wealth code. Each is rated numerically, with higher numbers being better. If no wealth code is given, it is presumed to be zero.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your party includes yourself
+ &lt;InlineUIContainer&gt;&lt;Button Content='r202' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+;  any followers who join your 'party'; and finally any men, women, creatures, and animals encountered in the course of the game. Characters can be friendly or hostile, intelligent or unintelligent.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;When a character joins your party, their vital statistics are noted. You can voluntarily dismiss or abandon members of your party if you wish (sometimes expedient when making an escape or when food/money is short). Any characters encountered simply go on thier way and disappear from the game unless they join your party.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;To determine your own personal characteristics at the start of the game, see
+ &lt;InlineUIContainer&gt;&lt;Button Content='r202' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>r057</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r057 Troll Skin&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;A hugh stone-skinned troll was killed by your party. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Since you killed the troll, its stone-skin is a valuble item. Whenever you have an opportunity to buy food at a town, castle, temple, or from merchants; you can sell the skin for 50 gold pieces. It is also known that Count Drogat of Drogat Castle will treasure the gift should you manage to get a personal audience with him.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/TrollSkin.gif' Height='300' Width='166'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
 </sst>
 </file>
@@ -4358,10 +4368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B218"/>
+  <dimension ref="A1:B219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B175" sqref="B175"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4372,1447 +4382,1447 @@
   <sheetData>
     <row r="1" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>374</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>382</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>405</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="27" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="375" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>346</v>
+        <v>407</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="34" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>387</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B38" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B53" s="1" t="s">
+    <row r="63" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" s="1" t="s">
+    <row r="64" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="65" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="B65" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>368</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="B71" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="B72" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="B73" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B79" s="1" t="s">
+    <row r="81" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B80" s="1" t="s">
+    <row r="83" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B82" s="1" t="s">
+    <row r="84" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+    <row r="88" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="B88" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="B90" s="1" t="s">
-        <v>153</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="B92" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+    <row r="94" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="B94" s="1" t="s">
-        <v>154</v>
+        <v>329</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="B96" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="B97" s="1" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="B104" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+    <row r="106" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="B106" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="B107" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="B108" s="1" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="B112" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B113" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B112" s="1" t="s">
+    <row r="115" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B113" s="1" t="s">
+    <row r="116" spans="1:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+    <row r="122" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B122" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+    <row r="124" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>201</v>
+        <v>271</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>164</v>
+        <v>434</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>169</v>
@@ -5820,303 +5830,311 @@
     </row>
     <row r="182" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="B192" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
+      <c r="B200" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
+      <c r="B201" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B200" s="1" t="s">
+    </row>
+    <row r="202" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="B202" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B205" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
+    <row r="206" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B204" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
+      <c r="B206" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B207" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B206" s="1" t="s">
+    <row r="208" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
+      <c r="B208" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B209" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
+      <c r="B210" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B209" s="1" t="s">
+    </row>
+    <row r="211" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
+      <c r="B211" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B210" s="1" t="s">
+    </row>
+    <row r="212" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
+      <c r="B212" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B211" s="1" t="s">
+    </row>
+    <row r="213" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
+      <c r="B213" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
+      <c r="B214" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>358</v>
+        <v>219</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>206</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A44:B218">
-    <sortCondition ref="A44:A218"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A45:B219">
+    <sortCondition ref="A45:A219"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Rules.xlsx
+++ b/Documentation/Rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\Documents\Visual Studio 2022\Projects\BarbarianPrince2\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E851EC-3896-4ABC-8040-D071DADF1EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8080A34B-8F99-471B-B63A-324EBAE78689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -3091,44 +3091,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;Bold&gt;r192 Resurrection Necklace&lt;/Bold&gt;
-&lt;LineBreak/&gt;
-This necklace of black opals and red rubies holds the secret of a second life. If the wearer dies for any reason, including voluntary suicide, at the end of the day, the character rises from the dead.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-The necklace disintegrates as the character revives and thus only works once. The resurrection occurs in the same hex, but the character is now free to select any action on the next day. A character revived by the necklace has a somewhat ghoulish cast and is a bit weaker. Endurance is reduced by one. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If the Prince is revived by the necklace having been left for dead, he will have lost all possessions and money. The entire party will have scattered although a lover might return
- &lt;InlineUIContainer&gt;&lt;Button Content='r228' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-You learn that such appearances are favored at the Dragot Castle. You can add one if seeking an audience
- &lt;InlineUIContainer&gt;&lt;Button Content='r211' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- with Count Dragot. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Necklace</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='Possession' Height='200' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;r191 Resistance Ring&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 This ring creates a magic aura around the wearer. Every time the wearer is wounded, roll two die:
@@ -3988,6 +3950,44 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Since you killed the troll, its stone-skin is a valuble item. Whenever you have an opportunity to buy food at a town, castle, temple, or from merchants; you can sell the skin for 50 gold pieces. It is also known that Count Drogat of Drogat Castle will treasure the gift should you manage to get a personal audience with him.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
                 &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/TrollSkin.gif' Height='300' Width='166'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;r192 Resurrection Necklace&lt;/Bold&gt;
+&lt;LineBreak/&gt;
+This necklace of black opals and red rubies holds the secret of a second life. If the wearer dies for any reason, including voluntary suicide, at the end of the day, the character rises from the dead.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The necklace disintegrates as the character revives and thus only works once. The resurrection occurs in the same hex, but the character is now free to select any action on the next day. A character revived by the necklace has a somewhat ghoulish cast and is a bit weaker. Endurance is reduced by one. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the Prince is revived by the necklace having been left for dead, he will have lost all possessions and money. The entire party will have scattered although a lover might return
+ &lt;InlineUIContainer&gt;&lt;Button Content='r228' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+You learn that such appearances are favored at the Dragot Castle. You can add one if seeking an audience
+ &lt;InlineUIContainer&gt;&lt;Button Content='r211' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ with Count Dragot. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                             &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Necklace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='Possession' Height='200' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4370,8 +4370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4398,18 +4398,18 @@
     </row>
     <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -4422,18 +4422,18 @@
     </row>
     <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4478,18 +4478,18 @@
     </row>
     <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4502,50 +4502,50 @@
     </row>
     <row r="16" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4558,50 +4558,50 @@
     </row>
     <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4673,7 +4673,7 @@
         <v>351</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4681,7 +4681,7 @@
         <v>355</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4689,7 +4689,7 @@
         <v>332</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -4697,7 +4697,7 @@
         <v>352</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -4705,7 +4705,7 @@
         <v>336</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -4713,7 +4713,7 @@
         <v>337</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -4857,7 +4857,7 @@
         <v>24</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4897,7 +4897,7 @@
         <v>29</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -5057,7 +5057,7 @@
         <v>51</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -5777,7 +5777,7 @@
         <v>200</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="45" x14ac:dyDescent="0.25">

--- a/Documentation/Rules.xlsx
+++ b/Documentation/Rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\Documents\Visual Studio 2022\Projects\BarbarianPrince2\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8080A34B-8F99-471B-B63A-324EBAE78689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{291721DF-8140-4D0D-992C-04CBDF97BBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="450">
   <si>
     <t>r203</t>
   </si>
@@ -3091,6 +3091,44 @@
   </si>
   <si>
     <r>
+      <t>&lt;Bold&gt;r192 Resurrection Necklace&lt;/Bold&gt;
+&lt;LineBreak/&gt;
+This necklace of black opals and red rubies holds the secret of a second life. If the wearer dies for any reason, including voluntary suicide, at the end of the day, the character rises from the dead.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The necklace disintegrates as the character revives and thus only works once. The resurrection occurs in the same hex, but the character is now free to select any action on the next day. A character revived by the necklace has a somewhat ghoulish cast and is a bit weaker. Endurance is reduced by one. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the Prince is revived by the necklace having been left for dead, he will have lost all possessions and money. The entire party will have scattered although a lover might return
+ &lt;InlineUIContainer&gt;&lt;Button Content='r228' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+You learn that such appearances are favored at the Dragot Castle. You can add one if seeking an audience
+ &lt;InlineUIContainer&gt;&lt;Button Content='r211' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ with Count Dragot. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Necklace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='Possession' Height='200' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>&lt;Bold&gt;r191 Resistance Ring&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 This ring creates a magic aura around the wearer. Every time the wearer is wounded, roll two die:
@@ -3353,34 +3391,6 @@
   </si>
   <si>
     <t>r097</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;e097 Marsh Gas and Rot&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your entire party has unwittingly travelled into an area full of flesh-rot disease and mind-destroying marsh gas. Roll one die for each character. If a one results, the character escapes. Any other result means the character dies a mindless and raving idiot while his flesh rots from his bones before his eyes.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-         &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FleshRot</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
   </si>
   <si>
     <t>&lt;Bold&gt;r213 Rafting the Rivers&lt;/Bold&gt;
@@ -3952,21 +3962,157 @@
                 &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/TrollSkin.gif' Height='300' Width='166'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
-    <r>
-      <t>&lt;Bold&gt;r192 Resurrection Necklace&lt;/Bold&gt;
+    <t>r099</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;r097 Marsh Gas and Rot&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your entire party has unwittingly travelled into an area full of flesh-rot disease and mind-destroying marsh gas. Roll one die for each character. If a one results, the character escapes. Any other result means the character dies a mindless and raving idiot while his flesh rots from his bones before his eyes.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+         &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FleshRot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>r098</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;r098 Dragon Eye&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You encountered a huge, winged fire-breathing dragon.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Since you killed the dragon, you cut out its eyes. The dragon eyes are valued by High Priest and increases the chance of securing an audience with them.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+         &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DragonEye</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;r099 Roc Beak&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You encountered the Roc, a giagantic bird which swoops down on your party. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Since you killed the Roc, you cut off its beak.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Count Drogat  especially prizes the item, and it may help you gain an audience with him. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+In addition, the beak can be sold to any merchant, or in any town/castle/temple whenever you buy food. The beak is worth 35gp.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+         &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RocBeak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>r100</t>
+  </si>
+  <si>
+    <t>r140</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;r140 Magic Box Found&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You find a magic box. You can open it only if you have a magician, wizard, or witch in your party. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Until then, you  carry it with you since it is relatively light.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Once such a person is in you party, you can open it and examine the contents. THe contents may be one of the following:
+ 1 - Hydra Teeth&lt;LineBreak/&gt;
+ 2 - Gems&lt;LineBreak/&gt;
+ 3 - Wealth 60&lt;LineBreak/&gt;
+ 4 - Wealth 110&lt;LineBreak/&gt;
+ 5 - Random Possession&lt;LineBreak/&gt;
+ 6 - Nothing but rubbish
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                 &lt;InlineUIContainer&gt;&lt;Image  Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BoxUnopened</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.gif' Name='BoxUnopened' Height='200'  Width='200'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt; </t>
+    </r>
+  </si>
+  <si>
+    <t>r141</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;r141 Hydra's Teeth&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The magician/wizard/witch explains that whenever you scatter these teeth on the ground, that number of undead warriors will rise and fight in your party for one combat at your command.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+These undead teeth-warriors have combat skill 5, endurance 4, and wealth 0. They will only last for that combat and then disappear.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+You can scatter the teeth at any instant to use them that one time including at the start or during any combat.
 &lt;LineBreak/&gt;
-This necklace of black opals and red rubies holds the secret of a second life. If the wearer dies for any reason, including voluntary suicide, at the end of the day, the character rises from the dead.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-The necklace disintegrates as the character revives and thus only works once. The resurrection occurs in the same hex, but the character is now free to select any action on the next day. A character revived by the necklace has a somewhat ghoulish cast and is a bit weaker. Endurance is reduced by one. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If the Prince is revived by the necklace having been left for dead, he will have lost all possessions and money. The entire party will have scattered although a lover might return
- &lt;InlineUIContainer&gt;&lt;Button Content='r228' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-You learn that such appearances are favored at the Dragot Castle. You can add one if seeking an audience
- &lt;InlineUIContainer&gt;&lt;Button Content='r211' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- with Count Dragot. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                             &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+                                      &lt;InlineUIContainer&gt;&lt;Image  Source='../../Images/</t>
     </r>
     <r>
       <rPr>
@@ -3976,7 +4122,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Necklace</t>
+      <t>Teeth</t>
     </r>
     <r>
       <rPr>
@@ -3986,7 +4132,69 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.gif' Name='Possession' Height='200' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+      <t xml:space="preserve">.gif' Height='200'  Width='200'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt; </t>
+    </r>
+  </si>
+  <si>
+    <t>r212m</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e212m Gods Declare Crusade&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;The gods declare your cause a religious crusade and the Staff of Command is passed into your hands. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you bring this possession to any hex north of the, you will command instant obedience throughout the Norhlands, regain your throne, and win the game! 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Staff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='300' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;r100 Griffon Claws&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You killed a winged griffon.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;The griffon is intelligent and could serve both as a member of your party and as a winged mount for other characters.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You cut off its claws and carried them as an extra possession. They are especially valued by Lady Aeravir of Aeravir Castle, and it may help you gain audience with her.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+         &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GriffonClaws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
     </r>
   </si>
 </sst>
@@ -4368,10 +4576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B219"/>
+  <dimension ref="A1:B225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4398,10 +4606,10 @@
     </row>
     <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -4502,1639 +4710,1687 @@
     </row>
     <row r="16" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="25" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>420</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="375" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="36" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="37" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="38" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="39" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="40" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="41" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="42" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B38" s="3" t="s">
+    <row r="44" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B39" s="1" t="s">
+    <row r="45" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B40" s="1" t="s">
+    <row r="46" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B41" s="1" t="s">
+    <row r="47" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    <row r="48" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="49" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="50" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="51" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="52" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="53" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="54" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="55" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="56" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="57" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="58" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="59" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="60" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="61" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="62" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="63" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="64" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="65" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="66" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="67" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="68" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="69" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+    <row r="70" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="71" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>367</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="78" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+    <row r="86" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+    <row r="87" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+    <row r="88" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+    <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+    <row r="90" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+    <row r="92" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+    <row r="93" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+    <row r="94" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>153</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+    <row r="105" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+    <row r="106" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+    <row r="107" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+    <row r="108" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+    <row r="109" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+    <row r="110" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+    <row r="111" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+    <row r="112" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+    <row r="113" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+    <row r="114" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+    <row r="115" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+    <row r="116" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+    <row r="117" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+    <row r="118" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+    <row r="119" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+    <row r="120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+    <row r="121" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+    <row r="122" spans="1:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+    <row r="130" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B180" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
+    <row r="181" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B181" s="1" t="s">
         <v>433</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B210" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
+    <row r="211" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B211" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
+    <row r="212" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B212" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
+    <row r="213" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B213" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
+    <row r="214" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B214" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
+    <row r="215" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B215" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
+    <row r="216" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B216" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
+    <row r="217" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B217" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
+    <row r="218" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
+    <row r="219" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
+    <row r="220" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
+    <row r="221" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
+    <row r="222" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B222" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
+    <row r="223" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B223" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
+    <row r="224" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B224" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
+    <row r="225" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B225" s="1" t="s">
         <v>205</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A45:B219">
-    <sortCondition ref="A45:A219"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A50:B225">
+    <sortCondition ref="A50:A225"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Rules.xlsx
+++ b/Documentation/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\Documents\Visual Studio 2022\Projects\BarbarianPrince2\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{291721DF-8140-4D0D-992C-04CBDF97BBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA2DE167-AC35-4D66-BB3A-017C6263704C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-25320" yWindow="15" windowWidth="25440" windowHeight="15390" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -3091,44 +3091,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;Bold&gt;r192 Resurrection Necklace&lt;/Bold&gt;
-&lt;LineBreak/&gt;
-This necklace of black opals and red rubies holds the secret of a second life. If the wearer dies for any reason, including voluntary suicide, at the end of the day, the character rises from the dead.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-The necklace disintegrates as the character revives and thus only works once. The resurrection occurs in the same hex, but the character is now free to select any action on the next day. A character revived by the necklace has a somewhat ghoulish cast and is a bit weaker. Endurance is reduced by one. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If the Prince is revived by the necklace having been left for dead, he will have lost all possessions and money. The entire party will have scattered although a lover might return
- &lt;InlineUIContainer&gt;&lt;Button Content='r228' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-You learn that such appearances are favored at the Dragot Castle. You can add one if seeking an audience
- &lt;InlineUIContainer&gt;&lt;Button Content='r211' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- with Count Dragot. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Necklace</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='Possession' Height='200' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;r191 Resistance Ring&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 This ring creates a magic aura around the wearer. Every time the wearer is wounded, roll two die:
@@ -3997,35 +3959,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;Bold&gt;r098 Dragon Eye&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You encountered a huge, winged fire-breathing dragon.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Since you killed the dragon, you cut out its eyes. The dragon eyes are valued by High Priest and increases the chance of securing an audience with them.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-         &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DragonEye</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;r099 Roc Beak&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;You encountered the Roc, a giagantic bird which swoops down on your party. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Since you killed the Roc, you cut off its beak.
@@ -4103,6 +4036,76 @@
     <t>r141</t>
   </si>
   <si>
+    <t>r212m</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;r192 Resurrection Necklace&lt;/Bold&gt;
+&lt;LineBreak/&gt;
+This necklace of black opals and red rubies holds the secret of a second life. If the wearer dies for any reason, including voluntary suicide, at the end of the day, the character rises from the dead.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The necklace disintegrates as the character revives and thus only works once. The resurrection occurs in the same hex, but the character is now free to select any action on the next day. A character revived by the necklace has a somewhat ghoulish cast and is a bit weaker. Endurance is reduced by one. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the Prince is revived by the necklace having been left for dead, he will have lost all possessions and money. The entire party will have scattered although a lover might return
+ &lt;InlineUIContainer&gt;&lt;Button Content='r228' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+You learn that such appearances are favored at the Dragot Castle. You can add one if seeking an audience
+ &lt;InlineUIContainer&gt;&lt;Button Content='r211' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ with Count Dragot. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                             &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Necklace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='Possession' Height='200' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;r098 Dragon Eye&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You encountered a huge, winged fire-breathing dragon.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Since you killed the dragon, you cut out its eyes. The dragon eyes are valued by High Priest and increases the chance of securing an audience with them.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+    &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DragonEye</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>&lt;Bold&gt;r141 Hydra's Teeth&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
@@ -4112,7 +4115,7 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 You can scatter the teeth at any instant to use them that one time including at the start or during any combat.
 &lt;LineBreak/&gt;
-                                      &lt;InlineUIContainer&gt;&lt;Image  Source='../../Images/</t>
+                              &lt;InlineUIContainer&gt;&lt;Image  Source='../../Images/</t>
     </r>
     <r>
       <rPr>
@@ -4134,9 +4137,6 @@
       </rPr>
       <t xml:space="preserve">.gif' Height='200'  Width='200'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt; </t>
     </r>
-  </si>
-  <si>
-    <t>r212m</t>
   </si>
   <si>
     <r>
@@ -4144,7 +4144,7 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;The gods declare your cause a religious crusade and the Staff of Command is passed into your hands. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;If you bring this possession to any hex north of the, you will command instant obedience throughout the Norhlands, regain your throne, and win the game! 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+              &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
     </r>
     <r>
       <rPr>
@@ -4174,7 +4174,7 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;The griffon is intelligent and could serve both as a member of your party and as a winged mount for other characters.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;You cut off its claws and carried them as an extra possession. They are especially valued by Lady Aeravir of Aeravir Castle, and it may help you gain audience with her.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-         &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+     &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
     </r>
     <r>
       <rPr>
@@ -4184,7 +4184,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GriffonClaws</t>
+      <t>GriffonClaw</t>
     </r>
     <r>
       <rPr>
@@ -4579,7 +4579,7 @@
   <dimension ref="A1:B225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4606,18 +4606,18 @@
     </row>
     <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -4630,18 +4630,18 @@
     </row>
     <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4686,18 +4686,18 @@
     </row>
     <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4710,39 +4710,39 @@
     </row>
     <row r="16" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>449</v>
@@ -4750,34 +4750,34 @@
     </row>
     <row r="21" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4790,66 +4790,66 @@
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4921,7 +4921,7 @@
         <v>351</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4929,7 +4929,7 @@
         <v>355</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4937,7 +4937,7 @@
         <v>332</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -4945,7 +4945,7 @@
         <v>352</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -4953,7 +4953,7 @@
         <v>336</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -4961,7 +4961,7 @@
         <v>337</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -4993,7 +4993,7 @@
         <v>17</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -5105,7 +5105,7 @@
         <v>24</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -5145,7 +5145,7 @@
         <v>29</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -5302,7 +5302,7 @@
     </row>
     <row r="90" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>448</v>
@@ -5313,7 +5313,7 @@
         <v>51</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -6033,7 +6033,7 @@
         <v>200</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="45" x14ac:dyDescent="0.25">

--- a/Documentation/Rules.xlsx
+++ b/Documentation/Rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\Documents\Visual Studio 2022\Projects\BarbarianPrince2\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA2DE167-AC35-4D66-BB3A-017C6263704C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBC9520B-0B1F-40AD-89C2-81AEF3107BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="15" windowWidth="25440" windowHeight="15390" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -4171,9 +4171,8 @@
     <r>
       <t>&lt;Bold&gt;r100 Griffon Claws&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;You killed a winged griffon.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;The griffon is intelligent and could serve both as a member of your party and as a winged mount for other characters.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;You cut off its claws and carried them as an extra possession. They are especially valued by Lady Aeravir of Aeravir Castle, and it may help you gain audience with her.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;LineBreak/&gt;
      &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
     </r>
     <r>
@@ -4579,7 +4578,7 @@
   <dimension ref="A1:B225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4740,7 +4739,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>440</v>
       </c>

--- a/Documentation/Rules.xlsx
+++ b/Documentation/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBC9520B-0B1F-40AD-89C2-81AEF3107BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6B1505C9-C6F1-4698-A6F2-B76B612B0A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -357,11 +357,6 @@
  &lt;InlineUIContainer&gt;&lt;Button Name='myButtonE147' Content='e147' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r212j  High Priestess Request Audience&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;High Priestess requests an audience
- &lt;InlineUIContainer&gt;&lt;Button Name='myButtonE155' Content='e155' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
-  </si>
-  <si>
     <t>r220</t>
   </si>
   <si>
@@ -888,22 +883,6 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die. If your wit and wiles exceeds the roll, they let your party pass and the event ends.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Otherwise, see
  &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR330' Content='r330' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r328 Pass Tough&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Characters encountered have an unpleasant gleem in their eyes. You try to create a favorable impression anyway..
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die. If your wit and wiles exceeds the roll, they let your party pass and the event ends.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Otherwise, see
- &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR330' Content='r330' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- and subtract one from the die roll there.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r325 Pass with Talk&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You think you can lull their suspicions. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die. If your wit and wiles equals or exceeds the roll, the encountered characters let your party pass. The event ends.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Otherwise, see
- &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR330' Content='r330' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- and add one from the die roll there.</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r315 Begging Escape&lt;/Bold&gt;
@@ -2488,50 +2467,7 @@
  &lt;InlineUIContainer&gt;&lt;Button Content='r334' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;e339 Convince Hirelings&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Characters encountered look askance at you and will pass you by unless you stop to talk. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you stop to talk, you decide you should convince them to join your party as henchmen. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die. If you wit and wiles exeeds the die roll, they can join at two gold pieces per day with today's pay due right now. You can hire some instead of all you desire. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you stop to talk but fail to convince them to join as hirelings, roll one die to determine their attitude:
-&lt;LineBreak/&gt;&lt;LineBreak/&gt; 1,2,3 -
- &lt;InlineUIContainer&gt;&lt;Button Content='r325' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt; 4,5,6 -
- &lt;InlineUIContainer&gt;&lt;Button Content='r330' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
     <t>r203a</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;e203a Prison Escape Attempt&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;Italic&gt;Escape:&lt;/Italic&gt; Prison break! Roll one die for each character in your party who was imprisoned with you. They are part of the escape on 3+. Otherwise, they are unable to join the escape or have already been executed.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If an escape occurs, use the escape rules
- &lt;InlineUIContainer&gt;&lt;Button Content='r218' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- to determine where you end up. The escape takes the entire day and after you must prepare for the evening meals
- &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;                                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>JailBreak</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.gif' Height='250'  Width='250'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-</t>
-    </r>
   </si>
   <si>
     <t>&lt;Bold&gt;r220c Strikes&lt;/Bold&gt;
@@ -2652,16 +2588,6 @@
     <t>r073a</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;e073a Hostile Witch&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your party must escape
- &lt;InlineUIContainer&gt;&lt;Button Content='r218' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- immediately. Roll one die for each character in your party including yourself. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If a six occurs, the character is turned into a frog and is lost. If you are turned into a frog; any frog, lover, magician, or friendly witch surviving in your party can turn you back.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Otherwise, you remain a frog for years and lose the game. 
-&lt;LineBreak/&gt; &lt;LineBreak/&gt;
-                           &lt;InlineUIContainer&gt;&lt;Image Name='Witch' Source='../../Images/Witch.gif' Height='300' Width='240'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
     <t>r079</t>
   </si>
   <si>
@@ -2788,39 +2714,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;Bold&gt;e090 Quicksand&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your party stumbles into quicksand. Roll one die for each character or mount. If a character is riding a mount, you can roll for both together as a character. Alternatively, you can sacrifice the mount and its load in order to jump from it to safety.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-1,2,3 - Character or mount struggles out of the quicksand and is not harmed.&lt;LineBreak/&gt;
-4 - Character or mount escapes only if another character or mount is already free to pull it out. Otherwise, it sinks and dies.&lt;LineBreak/&gt;
-5 - Character struggles outward using vines and tree routes, but a mount is lost with everything it carries.&lt;LineBreak/&gt;
-6 - Character or mount is trapped in deepest part. They cannot win freedom and are automatically lost with everything carried.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Quicksand</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='150'  Width='150'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;r121 Sunstroke&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;The heat of the sun is unexpected. Roll one die for each character and mount in your party. A six means he or it collapses from the sunstroke. Mounts that collapse must be left to die.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Characters that collapse must be carried if possible even if that means other loads must be abandoned per
@@ -3320,36 +3213,6 @@
   </si>
   <si>
     <t>r013a</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;e013a Rich Peasant Family&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;Italic&gt;Friendly Approach:&lt;/Italic&gt;The family provides food and lodging as if you are in town with the same penalities if you refuse to pay.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Family may sell horses. Roll one die, and a result of 4 plus means they do. If they have stables, roll again for the number of horses available for sale. Roll one die again and double it for the price per horse. They will sell horses at this rate and will also sell food at 2 food units per gold piece. An unlimited amount of food is available for sale.
-&lt;LineBreak/&gt;
-&lt;LineBreak/&gt;
-                        &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lodging</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif'  Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
   </si>
   <si>
     <t>r097</t>
@@ -4140,35 +4003,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;Bold&gt;e212m Gods Declare Crusade&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;The gods declare your cause a religious crusade and the Staff of Command is passed into your hands. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you bring this possession to any hex north of the, you will command instant obedience throughout the Norhlands, regain your throne, and win the game! 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-              &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Staff</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='300' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;r100 Griffon Claws&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;You killed a winged griffon.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;You cut off its claws and carried them as an extra possession. They are especially valued by Lady Aeravir of Aeravir Castle, and it may help you gain audience with her.
@@ -4195,6 +4029,172 @@
       </rPr>
       <t>.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;r013a Rich Peasant Family&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;Italic&gt;Friendly Approach:&lt;/Italic&gt;The family provides food and lodging as if you are in town with the same penalities if you refuse to pay.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Family may sell horses. Roll one die, and a result of 4 plus means they do. If they have stables, roll again for the number of horses available for sale. Roll one die again and double it for the price per horse. They will sell horses at this rate and will also sell food at 2 food units per gold piece. An unlimited amount of food is available for sale.
+&lt;LineBreak/&gt;
+&lt;LineBreak/&gt;
+                        &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lodging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif'  Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r073a Hostile Witch&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your party must escape
+ &lt;InlineUIContainer&gt;&lt;Button Content='r218' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ immediately. Roll one die for each character in your party including yourself. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If a six occurs, the character is turned into a frog and is lost. If you are turned into a frog; any frog, lover, magician, or friendly witch surviving in your party can turn you back.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Otherwise, you remain a frog for years and lose the game. 
+&lt;LineBreak/&gt; &lt;LineBreak/&gt;
+                           &lt;InlineUIContainer&gt;&lt;Image Name='Witch' Source='../../Images/Witch.gif' Height='300' Width='240'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;r090 Quicksand&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your party stumbles into quicksand. Roll one die for each character or mount. If a character is riding a mount, you can roll for both together as a character. Alternatively, you can sacrifice the mount and its load in order to jump from it to safety.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+1,2,3 - Character or mount struggles out of the quicksand and is not harmed.&lt;LineBreak/&gt;
+4 - Character or mount escapes only if another character or mount is already free to pull it out. Otherwise, it sinks and dies.&lt;LineBreak/&gt;
+5 - Character struggles outward using vines and tree routes, but a mount is lost with everything it carries.&lt;LineBreak/&gt;
+6 - Character or mount is trapped in deepest part. They cannot win freedom and are automatically lost with everything carried.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Quicksand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='150'  Width='150'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;r203a Prison Escape Attempt&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;Italic&gt;Escape:&lt;/Italic&gt; Prison break! Roll one die for each character in your party who was imprisoned with you. They are part of the escape on 3+. Otherwise, they are unable to join the escape or have already been executed.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If an escape occurs, use the escape rules
+ &lt;InlineUIContainer&gt;&lt;Button Content='r218' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ to determine where you end up. The escape takes the entire day and after you must prepare for the evening meals
+ &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;                                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JailBreak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.gif' Height='250'  Width='250'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;r212m Gods Declare Crusade&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;The gods declare your cause a religious crusade and the Staff of Command is passed into your hands. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you bring this possession to any hex north of the, you will command instant obedience throughout the Norhlands, regain your throne, and win the game! 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+              &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Staff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='300' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r326 Pass with Talk&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You think you can lull their suspicions. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die. If your wit and wiles equals or exceeds the roll, the encountered characters let your party pass. The event ends.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Otherwise, see
+ &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR330' Content='r330' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ and add one from the die roll there.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r329 Pass Tough&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Characters encountered have an unpleasant gleem in their eyes. You try to create a favorable impression anyway..
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die. If your wit and wiles exceeds the roll, they let your party pass and the event ends.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Otherwise, see
+ &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR330' Content='r330' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ and subtract one from the die roll there.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r339 Convince Hirelings&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Characters encountered look askance at you and will pass you by unless you stop to talk. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you stop to talk, you decide you should convince them to join your party as henchmen. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die. If you wit and wiles exeeds the die roll, they can join at two gold pieces per day with today's pay due right now. You can hire some instead of all you desire. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you stop to talk but fail to convince them to join as hirelings, roll one die to determine their attitude:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt; 1,2,3 -
+ &lt;InlineUIContainer&gt;&lt;Button Content='r325' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt; 4,5,6 -
+ &lt;InlineUIContainer&gt;&lt;Button Content='r330' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r212j High Priestess Request Audience&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;High Priestess requests an audience
+ &lt;InlineUIContainer&gt;&lt;Button Name='myButtonE155' Content='e155' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
   </si>
 </sst>
 </file>
@@ -4577,8 +4577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4589,394 +4589,394 @@
   <sheetData>
     <row r="1" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>370</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>381</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -4984,7 +4984,7 @@
         <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -4992,7 +4992,7 @@
         <v>17</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -5000,7 +5000,7 @@
         <v>18</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -5008,15 +5008,15 @@
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>360</v>
+        <v>444</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -5029,50 +5029,50 @@
     </row>
     <row r="56" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -5080,7 +5080,7 @@
         <v>21</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -5104,7 +5104,7 @@
         <v>24</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -5120,7 +5120,7 @@
         <v>26</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -5128,7 +5128,7 @@
         <v>27</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
@@ -5144,7 +5144,7 @@
         <v>29</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -5152,7 +5152,7 @@
         <v>30</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -5160,7 +5160,7 @@
         <v>31</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="330" x14ac:dyDescent="0.25">
@@ -5168,7 +5168,7 @@
         <v>32</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -5176,7 +5176,7 @@
         <v>33</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="360" x14ac:dyDescent="0.25">
@@ -5184,7 +5184,7 @@
         <v>34</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="360" x14ac:dyDescent="0.25">
@@ -5192,7 +5192,7 @@
         <v>35</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -5208,7 +5208,7 @@
         <v>37</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -5272,7 +5272,7 @@
         <v>45</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -5280,7 +5280,7 @@
         <v>46</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>71</v>
+        <v>449</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -5288,7 +5288,7 @@
         <v>47</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -5296,15 +5296,15 @@
         <v>50</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -5312,7 +5312,7 @@
         <v>51</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -5320,7 +5320,7 @@
         <v>1</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="300" x14ac:dyDescent="0.25">
@@ -5328,7 +5328,7 @@
         <v>5</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -5360,7 +5360,7 @@
         <v>9</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -5384,7 +5384,7 @@
         <v>12</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -5392,7 +5392,7 @@
         <v>13</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -5400,7 +5400,7 @@
         <v>14</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -5416,7 +5416,7 @@
         <v>52</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -5424,7 +5424,7 @@
         <v>61</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -5432,7 +5432,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -5440,7 +5440,7 @@
         <v>4</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -5448,103 +5448,103 @@
         <v>53</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -5552,839 +5552,839 @@
         <v>2</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>183</v>
+        <v>446</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>182</v>
+        <v>447</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>358</v>
+        <v>448</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Rules.xlsx
+++ b/Documentation/Rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6B1505C9-C6F1-4698-A6F2-B76B612B0A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{511FB123-57C8-49B8-9001-575408A48203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -2395,19 +2395,6 @@
     <t>r009</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r009 Farm&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You spot a small farm ahead. You may detour around it but that will consume the rest of the day ending travel for today.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Alternately, you can go up to it. If you approach the farm, you must decide whether to make it a friendly approach or a raid. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='e009a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;Italic&gt; - Friendly Approach&lt;/Italic&gt;
-&lt;LineBreak/&gt;&lt;InlineUIContainer&gt;&lt;Button Content='e009b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;Italic&gt; - Raid:&lt;/Italic&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If you select a raid and remain in this hex at the end of today, you may be attacked by a revengful mob tomorrow morning before you have a chance to do your daily action. At that time, roll one die. A result of 5+ results in a peasant mob in hot pursuit.  If any other number occurs, there is no mob or event.</t>
-  </si>
-  <si>
     <t>r188a</t>
   </si>
   <si>
@@ -4195,6 +4182,19 @@
     <t>&lt;Bold&gt;r212j High Priestess Request Audience&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;High Priestess requests an audience
  &lt;InlineUIContainer&gt;&lt;Button Name='myButtonE155' Content='e155' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r009 Farm&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You spot a small farm ahead. You may detour around it but that will consume the rest of the day ending travel for today.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Alternately, you can go up to it. If you approach the farm, you must decide whether to make it a friendly approach or a raid. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='e009a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;Italic&gt; - Friendly Approach&lt;/Italic&gt;
+&lt;LineBreak/&gt;&lt;InlineUIContainer&gt;&lt;Button Content='e009b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;Italic&gt; - Raid&lt;/Italic&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If you select a raid and remain in this hex at the end of today, you may be attacked by a revengful mob tomorrow morning before you have a chance to do your daily action. At that time, roll one die. A result of 5+ results in a peasant mob in hot pursuit.  If any other number occurs, there is no mob or event.</t>
   </si>
 </sst>
 </file>
@@ -4577,8 +4577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4592,31 +4592,31 @@
         <v>350</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>351</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -4629,226 +4629,226 @@
     </row>
     <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4856,7 +4856,7 @@
         <v>342</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4864,7 +4864,7 @@
         <v>343</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4880,7 +4880,7 @@
         <v>344</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4888,7 +4888,7 @@
         <v>345</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4896,7 +4896,7 @@
         <v>346</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4904,7 +4904,7 @@
         <v>332</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4912,7 +4912,7 @@
         <v>347</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -4920,15 +4920,15 @@
         <v>348</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4936,7 +4936,7 @@
         <v>329</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -4944,7 +4944,7 @@
         <v>349</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -4952,7 +4952,7 @@
         <v>333</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -4960,7 +4960,7 @@
         <v>334</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -4968,7 +4968,7 @@
         <v>335</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -4992,7 +4992,7 @@
         <v>17</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -5013,10 +5013,10 @@
     </row>
     <row r="54" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -5104,7 +5104,7 @@
         <v>24</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -5144,7 +5144,7 @@
         <v>29</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -5152,7 +5152,7 @@
         <v>30</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -5160,7 +5160,7 @@
         <v>31</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="330" x14ac:dyDescent="0.25">
@@ -5168,7 +5168,7 @@
         <v>32</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -5176,7 +5176,7 @@
         <v>33</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="360" x14ac:dyDescent="0.25">
@@ -5184,7 +5184,7 @@
         <v>34</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="360" x14ac:dyDescent="0.25">
@@ -5280,7 +5280,7 @@
         <v>46</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -5301,10 +5301,10 @@
     </row>
     <row r="90" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -5312,7 +5312,7 @@
         <v>51</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -5480,7 +5480,7 @@
         <v>74</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -6032,7 +6032,7 @@
         <v>197</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -6248,7 +6248,7 @@
         <v>124</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -6272,7 +6272,7 @@
         <v>127</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -6352,7 +6352,7 @@
         <v>144</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -6368,7 +6368,7 @@
         <v>146</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -6376,7 +6376,7 @@
         <v>147</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="60" x14ac:dyDescent="0.25">

--- a/Documentation/Rules.xlsx
+++ b/Documentation/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{511FB123-57C8-49B8-9001-575408A48203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A1AC0F0-C653-4563-AF90-32D3A65742F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="452">
   <si>
     <t>r203</t>
   </si>
@@ -4195,6 +4195,26 @@
 &lt;Italic&gt; - Raid&lt;/Italic&gt; 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 If you select a raid and remain in this hex at the end of today, you may be attacked by a revengful mob tomorrow morning before you have a chance to do your daily action. At that time, roll one die. A result of 5+ results in a peasant mob in hot pursuit.  If any other number occurs, there is no mob or event.</t>
+  </si>
+  <si>
+    <t>r146</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r146 The Secret of Count Dragot&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You learn that Count Drogat, lord of Drogat Castle, is acutally an undead creature who enjoys the suffering, pain, and death of others. This explains why he so often tortures and dismembers felons in his realm.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;He often goes into rages that leave his lands in a reign of terror. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;However, he is very vulnerable to foulbane, a rare plant which can be purchased from the food merchants at Duffyd Temple
+ &lt;InlineUIContainer&gt;&lt;Button Content='2018' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ for one gold piece.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Using foulbane, when you attempt to gain an audience
+ &lt;InlineUIContainer&gt;&lt;Button Content='r211' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ with Count Drogat, you add one to your dice roll. If you gain an audience, you can ignore the first audience result dice roll and try again. However, if you wish to roll again, you must abide by the second result regardless of the outcome.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Finally, using the foulbane in Drogat Castle, you can spend a day instead of a normal daily action in arranging for a special theft of the Count's personnel jewels.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;At the end of the day, you escape from the hex
+ &lt;InlineUIContainer&gt;&lt;Button Content='r218' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ with wealth 110. However, you can never return to the castle hex due to the Count's anger. In the process of the theft, you might acquire magic items as part of the wealth 110 check. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                     &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/FoulBane.gif' Name='EncounterEnd' Height='250' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
 </sst>
 </file>
@@ -4575,10 +4595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B225"/>
+  <dimension ref="A1:B226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4851,1545 +4871,1553 @@
         <v>438</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>375</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>379</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="47" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="56" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="57" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="59" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="60" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="61" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="62" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="63" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="64" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="65" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+    <row r="66" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="67" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    <row r="68" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    <row r="69" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    <row r="70" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="71" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="72" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    <row r="73" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="74" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="75" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>362</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="78" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    <row r="79" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+    <row r="83" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+    <row r="86" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+    <row r="87" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+    <row r="88" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+    <row r="89" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+    <row r="90" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+    <row r="91" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+    <row r="92" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+    <row r="93" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+    <row r="94" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+    <row r="95" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+    <row r="100" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+    <row r="101" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+    <row r="104" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+    <row r="107" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+    <row r="108" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+    <row r="111" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+    <row r="112" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+    <row r="113" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+    <row r="114" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+    <row r="115" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+    <row r="120" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+    <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+    <row r="122" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+    <row r="123" spans="1:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+    <row r="124" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+    <row r="125" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+    <row r="126" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+    <row r="127" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+    <row r="128" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+    <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+    <row r="130" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+    <row r="131" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B181" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
+    <row r="182" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B182" s="1" t="s">
         <v>423</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B194" s="1" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B198" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
+    <row r="199" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B199" s="1" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B201" s="1" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B203" s="1" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B206" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
+    <row r="207" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B207" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
+    <row r="208" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B208" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
+    <row r="209" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B209" s="1" t="s">
         <v>445</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B211" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
+    <row r="212" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B212" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
+    <row r="213" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B213" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
+    <row r="214" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B214" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
+    <row r="215" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B215" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
+    <row r="216" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B216" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
+    <row r="217" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B217" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
+    <row r="218" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
+    <row r="219" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
+    <row r="220" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
+    <row r="221" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B223" s="1" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B225" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
+    <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B226" s="1" t="s">
         <v>202</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A50:B225">
-    <sortCondition ref="A50:A225"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A51:B226">
+    <sortCondition ref="A51:A226"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Rules.xlsx
+++ b/Documentation/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A1AC0F0-C653-4563-AF90-32D3A65742F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD5FD133-96C7-4A42-AF82-D8F334589273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -691,15 +691,6 @@
  as hunting is prohibited in these hexes.</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r216a Follower Starvation&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If followers are not fed, they may desert. Roll two dice for each follower, and subtract your wit and wiles from the total. If the result is 4 or more, the chaacter deserts your party. Otherwise, he/she stays and suffers from the character starvation
- &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR216b' Content='r216b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you have food units or money to purchase it (in a town, castle, or temple), you cannot voluntarily withhold food from your followers unless you go without yourself as well. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If there is insufficient food for all, either you withhold it from all (including yourself) or share out what is available to all (this prevents the effects of character starvation
- &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR216b1' Content='r216b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;).
- However, this does not eliminate the risk of desertion described above with character starvation.</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r216b Character Starvation&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;If a character goes without food for a day, on the following day, his ability to carry loads
  &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR206' Content='r206' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
@@ -4215,6 +4206,15 @@
  with wealth 110. However, you can never return to the castle hex due to the Count's anger. In the process of the theft, you might acquire magic items as part of the wealth 110 check. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
                                      &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/FoulBane.gif' Name='EncounterEnd' Height='250' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r216a Follower Starvation&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If followers are not fed, they may desert. Roll two dice for each follower, and subtract your wit and wiles from the total. If the result is 4 or more, the follwer deserts your party. Otherwise, he/she stays and suffers from the character starvation
+ &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR216b' Content='r216b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you have food units or money to purchase it (in a town, castle, or temple), you cannot voluntarily withhold food from your followers unless you go without yourself as well. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If there is insufficient food for all, either you withhold it from all (including yourself) or share out what is available to all (this prevents the effects of character starvation
+ &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR216b1' Content='r216b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;).
+ However, this does not eliminate the risk of desertion described above with character starvation.</t>
   </si>
 </sst>
 </file>
@@ -4597,8 +4597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4609,402 +4609,402 @@
   <sheetData>
     <row r="1" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -5012,7 +5012,7 @@
         <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -5020,7 +5020,7 @@
         <v>17</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -5028,7 +5028,7 @@
         <v>18</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -5036,15 +5036,15 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -5057,50 +5057,50 @@
     </row>
     <row r="57" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -5108,7 +5108,7 @@
         <v>21</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -5132,7 +5132,7 @@
         <v>24</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -5148,7 +5148,7 @@
         <v>26</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -5156,7 +5156,7 @@
         <v>27</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
@@ -5172,7 +5172,7 @@
         <v>29</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -5180,7 +5180,7 @@
         <v>30</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -5188,7 +5188,7 @@
         <v>31</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="330" x14ac:dyDescent="0.25">
@@ -5196,7 +5196,7 @@
         <v>32</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -5204,7 +5204,7 @@
         <v>33</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="360" x14ac:dyDescent="0.25">
@@ -5212,7 +5212,7 @@
         <v>34</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="360" x14ac:dyDescent="0.25">
@@ -5236,7 +5236,7 @@
         <v>37</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -5300,7 +5300,7 @@
         <v>45</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -5308,7 +5308,7 @@
         <v>46</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -5316,7 +5316,7 @@
         <v>47</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -5329,10 +5329,10 @@
     </row>
     <row r="91" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -5340,7 +5340,7 @@
         <v>51</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -5348,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="300" x14ac:dyDescent="0.25">
@@ -5356,7 +5356,7 @@
         <v>5</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -5412,7 +5412,7 @@
         <v>12</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -5420,7 +5420,7 @@
         <v>13</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>152</v>
+        <v>451</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -5428,7 +5428,7 @@
         <v>14</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -5444,7 +5444,7 @@
         <v>52</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -5452,7 +5452,7 @@
         <v>61</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -5460,7 +5460,7 @@
         <v>3</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -5468,7 +5468,7 @@
         <v>4</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -5476,7 +5476,7 @@
         <v>53</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -5484,7 +5484,7 @@
         <v>71</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -5492,7 +5492,7 @@
         <v>72</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -5500,7 +5500,7 @@
         <v>73</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -5508,7 +5508,7 @@
         <v>74</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -5532,7 +5532,7 @@
         <v>77</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -5540,7 +5540,7 @@
         <v>78</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -5548,7 +5548,7 @@
         <v>80</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -5564,7 +5564,7 @@
         <v>82</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -5580,7 +5580,7 @@
         <v>2</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5588,7 +5588,7 @@
         <v>86</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -5596,7 +5596,7 @@
         <v>87</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -5604,7 +5604,7 @@
         <v>88</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -5612,7 +5612,7 @@
         <v>90</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -5628,7 +5628,7 @@
         <v>93</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -5644,423 +5644,423 @@
         <v>95</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -6068,7 +6068,7 @@
         <v>97</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -6076,7 +6076,7 @@
         <v>98</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -6084,7 +6084,7 @@
         <v>99</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -6092,7 +6092,7 @@
         <v>100</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -6100,7 +6100,7 @@
         <v>101</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -6108,7 +6108,7 @@
         <v>102</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -6116,7 +6116,7 @@
         <v>103</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -6124,7 +6124,7 @@
         <v>104</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -6132,7 +6132,7 @@
         <v>105</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -6140,7 +6140,7 @@
         <v>106</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -6148,7 +6148,7 @@
         <v>107</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -6156,7 +6156,7 @@
         <v>108</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -6164,7 +6164,7 @@
         <v>109</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -6172,7 +6172,7 @@
         <v>110</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -6180,7 +6180,7 @@
         <v>111</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -6188,7 +6188,7 @@
         <v>112</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -6196,7 +6196,7 @@
         <v>113</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -6204,7 +6204,7 @@
         <v>114</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -6212,7 +6212,7 @@
         <v>115</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -6220,7 +6220,7 @@
         <v>116</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -6228,7 +6228,7 @@
         <v>117</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -6236,7 +6236,7 @@
         <v>118</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -6244,7 +6244,7 @@
         <v>119</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -6252,7 +6252,7 @@
         <v>120</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -6260,7 +6260,7 @@
         <v>121</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6276,7 +6276,7 @@
         <v>124</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -6284,7 +6284,7 @@
         <v>125</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -6292,7 +6292,7 @@
         <v>126</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -6300,7 +6300,7 @@
         <v>127</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -6332,7 +6332,7 @@
         <v>133</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -6364,7 +6364,7 @@
         <v>141</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -6380,7 +6380,7 @@
         <v>144</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -6388,7 +6388,7 @@
         <v>145</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -6396,7 +6396,7 @@
         <v>146</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -6404,7 +6404,7 @@
         <v>147</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -6412,7 +6412,7 @@
         <v>148</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Rules.xlsx
+++ b/Documentation/Rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD5FD133-96C7-4A42-AF82-D8F334589273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA2C8D97-977F-4C14-B4FE-4EC9D4D4866E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -2324,27 +2324,7 @@
  6 - Royal Helm of the Northlands &lt;InlineUIContainer&gt;&lt;Button Content='r194' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r194 Royal Helm of Northlands&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;This ancient and sacred treasure has long been lost. Myths and tales still relate the great exploits of its wearers. Now, you hold this treasure which gives you automatic and indisputable right to the Northlands throne.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you return to either Ogon
- &lt;InlineUIContainer&gt;&lt;Button Content='0101' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- or Weshor
- &lt;InlineUIContainer&gt;&lt;Button Content='1501' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- towns with the helm, you will instantly be hailed as the rightful King of the Northlands and win the game!
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;In the meantime, possession of the helm increases your stature and self-confidence. Increase your wit and wiles by one.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/Helmet.gif' Name='Possession' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
     <t>r182</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r182 Gift of Charm&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;This is a small item of no real value, but it does have a magic aura. You can give this gift to any characters you encounter as part of any talk or negiotiaton.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;When you use it, you can then roll a second and a third time of that option. You select the die result you want.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Once given away, the gift is gone and useless unless the receiver later fights you in combat and you kill the defenders. Then, you can recover the gift as part of the defender's possessions. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/CharmGift.gif' Name='Possession' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r220 Combat&lt;/Bold&gt;
@@ -2587,724 +2567,452 @@
     <t>r085</t>
   </si>
   <si>
-    <r>
-      <t>&lt;Bold&gt;r085 Narrow Ledges&lt;/Bold&gt;
+    <t>r121</t>
+  </si>
+  <si>
+    <t>r090</t>
+  </si>
+  <si>
+    <t>r095</t>
+  </si>
+  <si>
+    <t>r096</t>
+  </si>
+  <si>
+    <t>r013a</t>
+  </si>
+  <si>
+    <t>r097</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r213 Rafting the Rivers&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You have the special option of using raft travel along the river instead of normal travel each day. When raft travel is available, you ride the raft until you get off by selecting a daily action other than raft travel; or when you roll 12 with two die after each day's travel. The latter represents the raft reaching a stopping point for lengthy loading, unloading, or dismantling.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;While on a raft, you travel on the river hexsides themselves. Your speed is either three hexsides per day downriver, or two hexsides per day upriver. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;At the end of the day, the raft halts for the night, and you camp on either hex adjacent to the hexside where travel ended. You can select which hex. After traveling the hexsides, check once for a travel event
+ &lt;InlineUIContainer&gt;&lt;Button Content='r204' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ on the Travel Table
+ &lt;InlineUIContainer&gt;&lt;Button Content='t207' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ under the 'rafting' row. Then check once for an event in the hex where you halted for the night.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+ --Trogoth River flows from east to west. &lt;LineBreak/&gt;
+ --Nesser River flows north to south&lt;LineBreak/&gt;
+ --Dienstal Branch flows from marsh feeding into the Nesser River &lt;LineBreak/&gt;
+ --Largos River flows from marsh toward the NE off the map&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>r126</t>
+  </si>
+  <si>
+    <t>r125</t>
+  </si>
+  <si>
+    <t>r018</t>
+  </si>
+  <si>
+    <t>r129</t>
+  </si>
+  <si>
+    <t>r127</t>
+  </si>
+  <si>
+    <t>r128</t>
+  </si>
+  <si>
+    <t>r051</t>
+  </si>
+  <si>
+    <t>r091</t>
+  </si>
+  <si>
+    <t>r094a</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r210 Seeking to Hire Followers&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;In this daily action, you spend the day posting notices, visiting agents/merchants, and inquiring at taverns about the availability of hired help. Roll two die and consult the list below for results: 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+ 2 -  Freeman joins your party at no cost (except food and lodging). He has a combat skill 3 and endurnace 4.&lt;LineBreak/&gt;
+ 3 -  Lancer with a horse can be hired for 3 gold per day. He  has a combat skill of 5 and endurance of 5.&lt;LineBreak/&gt;
+ 4 -  One or two mercenaries can be hired for 2 gold each day each. Each has a combat skill 4 and endurance 4.&lt;LineBreak/&gt;
+ 5 -  Horse deal in the area. You can buy horses at 10 golds each.&lt;LineBreak/&gt;
+ 6 -  Local guide available
+ &lt;InlineUIContainer&gt;&lt;Button Content='r205' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+. Hires fro 2 gold per day. He has a combat skill of 2 and endurnace 3.&lt;LineBreak/&gt;
+ 7 -  Henchmen available. Roll one die for the number available for hire. Each cost 1 gold per day and has a combat skill 2 and endurance 3.&lt;LineBreak/&gt;
+ 8 -  Slave market. See
+ &lt;InlineUIContainer&gt;&lt;Button Content='e163' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;
+ 9 -  Nothing available, but you gain some news and information. See
+ &lt;InlineUIContainer&gt;&lt;Button Content='r209' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ but subtract one from your dice roll.&lt;LineBreak/&gt;
+ 10 - Honest horse dealer in the area. You can buy horses for seven gold each.&lt;LineBreak/&gt;
+ 11 - Runaway boy or girl joins your party at no cost (except food and lodging). He/She has a combat skill 1 and endurance 3.&lt;LineBreak/&gt;
+ 12 - Porters in any quantity are available. Hire for 1/2 gold each day. In addition, a local guide
+ &lt;InlineUIContainer&gt;&lt;Button Content='r205' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ can be hired for 2 gold per day. He/she has a combat skill 2 and endurance 3.</t>
+  </si>
+  <si>
+    <t>r123a</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r205c Airborne&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If your party is flying (using an airborne move), use the airborne line on the Travel Table
+ &lt;InlineUIContainer&gt;&lt;Button Name='myButtonT207' Content='t207' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ instead of the normal terrain line, to see whether you are lost. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you get lost while making airborne travel, there is danger of extra wander or drift. Roll one die, if the result is 4 or more, drift one random hex direction.</t>
+  </si>
+  <si>
+    <t>r106</t>
+  </si>
+  <si>
+    <t>r107</t>
+  </si>
+  <si>
+    <t>r109</t>
+  </si>
+  <si>
+    <t>r111</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r281 Special Travel Reference&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Refer to the Travel Table
+ &lt;InlineUIContainer&gt;&lt;Button Content='t207' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ and roll one die.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Using the appropriate line for the terrain type you occupy, read across to the Event References column and use the column listed for that die roll. This will produce a Travel Event Reference specified in the table.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r201 Characters&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Each character in the game has a combat skill, an endurance value, and a wealth code. Each is rated numerically, with higher numbers being better. If no wealth code is given, it is presumed to be zero.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your party includes yourself
+ &lt;InlineUIContainer&gt;&lt;Button Content='r202' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+;  any followers who join your 'party'; and finally any men, women, creatures, and animals encountered in the course of the game. Characters can be friendly or hostile, intelligent or unintelligent.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;When a character joins your party, their vital statistics are noted. You can voluntarily dismiss or abandon members of your party if you wish (sometimes expedient when making an escape or when food/money is short). Any characters encountered simply go on thier way and disappear from the game unless they join your party.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;To determine your own personal characteristics at the start of the game, see
+ &lt;InlineUIContainer&gt;&lt;Button Content='r202' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>r057</t>
+  </si>
+  <si>
+    <t>r099</t>
+  </si>
+  <si>
+    <t>r098</t>
+  </si>
+  <si>
+    <t>r100</t>
+  </si>
+  <si>
+    <t>r140</t>
+  </si>
+  <si>
+    <t>r141</t>
+  </si>
+  <si>
+    <t>r212m</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r326 Pass with Talk&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You think you can lull their suspicions. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die. If your wit and wiles equals or exceeds the roll, the encountered characters let your party pass. The event ends.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Otherwise, see
+ &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR330' Content='r330' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ and add one from the die roll there.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r329 Pass Tough&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Characters encountered have an unpleasant gleem in their eyes. You try to create a favorable impression anyway..
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die. If your wit and wiles exceeds the roll, they let your party pass and the event ends.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Otherwise, see
+ &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR330' Content='r330' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ and subtract one from the die roll there.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r339 Convince Hirelings&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Characters encountered look askance at you and will pass you by unless you stop to talk. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you stop to talk, you decide you should convince them to join your party as henchmen. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die. If you wit and wiles exeeds the die roll, they can join at two gold pieces per day with today's pay due right now. You can hire some instead of all you desire. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you stop to talk but fail to convince them to join as hirelings, roll one die to determine their attitude:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt; 1,2,3 -
+ &lt;InlineUIContainer&gt;&lt;Button Content='r325' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt; 4,5,6 -
+ &lt;InlineUIContainer&gt;&lt;Button Content='r330' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r212j High Priestess Request Audience&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;High Priestess requests an audience
+ &lt;InlineUIContainer&gt;&lt;Button Name='myButtonE155' Content='e155' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r009 Farm&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You spot a small farm ahead. You may detour around it but that will consume the rest of the day ending travel for today.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Alternately, you can go up to it. If you approach the farm, you must decide whether to make it a friendly approach or a raid. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='e009a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;Italic&gt; - Friendly Approach&lt;/Italic&gt;
+&lt;LineBreak/&gt;&lt;InlineUIContainer&gt;&lt;Button Content='e009b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;Italic&gt; - Raid&lt;/Italic&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If you select a raid and remain in this hex at the end of today, you may be attacked by a revengful mob tomorrow morning before you have a chance to do your daily action. At that time, roll one die. A result of 5+ results in a peasant mob in hot pursuit.  If any other number occurs, there is no mob or event.</t>
+  </si>
+  <si>
+    <t>r146</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r216a Follower Starvation&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If followers are not fed, they may desert. Roll two dice for each follower, and subtract your wit and wiles from the total. If the result is 4 or more, the follwer deserts your party. Otherwise, he/she stays and suffers from the character starvation
+ &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR216b' Content='r216b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you have food units or money to purchase it (in a town, castle, or temple), you cannot voluntarily withhold food from your followers unless you go without yourself as well. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If there is insufficient food for all, either you withhold it from all (including yourself) or share out what is available to all (this prevents the effects of character starvation
+ &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR216b1' Content='r216b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;).
+ However, this does not eliminate the risk of desertion described above with character starvation.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r182 Gift of Charm&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;This is a small item of no real value, but it does have a magic aura. You can give this gift to any characters you encounter as part of any talk or negiotiaton.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;When you use it, you can then roll a second and a third time of that option. You select the die result you want.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Once given away, the gift is gone and useless unless the receiver later fights you in combat and you kill the defenders. Then, you can recover the gift as part of the defender's possessions. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                   &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/CharmGift.gif' Name='Possession' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r013a Rich Peasant Family&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;Italic&gt;Friendly Approach:&lt;/Italic&gt;The family provides food and lodging as if you are in town with the same penalities if you refuse to pay.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Family may sell horses. Roll one die, and a result of 4 plus means they do. If they have stables, roll again for the number of horses available for sale. Roll one die again and double it for the price per horse. They will sell horses at this rate and will also sell food at 2 food units per gold piece. An unlimited amount of food is available for sale.
+&lt;LineBreak/&gt;
+&lt;LineBreak/&gt;
+                        &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Lodging.gif'  Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r018 Priest&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+You encounter a local priest riding a donkey. The Priest has combat skill 3, endurance 3, and wealth 25. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+He seems aloof and not disposed to conversation, but he may be afraid of you. You can let him pass, ending the encounter, or select one of the two options: Talk or Fight
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;Italic&gt;Note:&lt;/Italic&gt; If you do fight the Priest in combat, and kill him, roll one die. If a 5 plus, he casts upon you the 'Mark of Cain'. You must immediately roll once for each follower in your party, and any time the roll is greater than your wit and wiles, the follower will immediately desert you. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+In addition, all monks and priests in the future will recognize the mark and will not join your party. You can never attempt an audience
+ &lt;InlineUIContainer&gt;&lt;Button Content='r211' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ with the high priest of any temple marked on the map, but may with high priest of any secret unmarked temples that you find.
+&lt;LineBreak/&gt;
+                              &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Priest.gif'  Height='150' Width='150'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r051 Bandits&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You are ambushed by bandits who surprise you in combat
+ &lt;InlineUIContainer&gt;&lt;Button Content='r220' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;The number of bandits exceeds the number of characters in your party by two.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;One of the bandits is the leader with combat skill 6, endurance 6, and wealth 15. The rest have combat skill 5, endurance 4, and wealth 1.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                 &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Bandit.gif' Height='300' Width='180'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r057 Troll Skin&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;A hugh stone-skinned troll was killed by your party. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Since you killed the troll, its stone-skin is a valuble item. Whenever you have an opportunity to buy food at a town, castle, temple, or from merchants; you can sell the skin for 50 gold pieces. It is also known that Count Drogat of Drogat Castle will treasure the gift should you manage to get a personal audience with him.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/TrollSkin.gif' Height='300' Width='166'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r073a Hostile Witch&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your party must escape
+ &lt;InlineUIContainer&gt;&lt;Button Content='r218' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ immediately. Roll one die for each character in your party including yourself. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If a six occurs, the character is turned into a frog and is lost. If you are turned into a frog; any frog, lover, magician, or friendly witch surviving in your party can turn you back.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Otherwise, you remain a frog for years and lose the game. 
+&lt;LineBreak/&gt; &lt;LineBreak/&gt;
+                           &lt;InlineUIContainer&gt;&lt;Image Name='Witch' Source='../bin/Images/Witch.gif' Height='300' Width='240'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r085 Narrow Ledges&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Your party is passing along narrow ledges and paths that overhang cliffs that plunge into deep gorges. Roll two die for each character on foot in the party. If a 12 is rolled, that character slips and fall to their death.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die for each mount in your party without wings. A six means the mount stumbles and falls to its death carrying away any rider and loads on it. If you entered the hex mounted, every party member that owns a mount is considered mounted for this purpose.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;If you personally slip or your mount falls over the edge, you are presumed to catch a ledge somewhere down the cliff and survive. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die and add one for the number of wounds suffered in the fall. Also, roll one die to see if your party finds you. A 5 or higher indicates they do. Any lower roll means the rest of your party does not find you and disappears with all the mounts, possessions, and wealth they are carrying.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                              &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NarrowLedge</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='125'  Width='250'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>r121</t>
-  </si>
-  <si>
-    <t>r090</t>
-  </si>
-  <si>
-    <t>r095</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r095 Mounts at Risk&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;The strain of travelling is exhausting your mounts. Each mount requires a roll.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
- 1,2,3,4: No effect. Mount still in fair condition. 
-&lt;LineBreak/&gt; 5: Mount failing. Unless you rest &lt;InlineUIContainer&gt;&lt;Button Content='r203' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; , it  dies tomorrow.
-&lt;LineBreak/&gt; 6: Mount in serious condition. It dies immediately.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                 &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MountTired</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='200' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r088 Rockfall&lt;/Bold&gt;
+                              &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/NarrowLedge.gif' Height='125'  Width='250'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r088 Rockfall&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;As you travel along through a steep-sided gorge, a rockfall begins threatening the entire party. Roll one die for each character. Mounts without riders are rolled for separately.
 &lt;LineBreak/&gt;
  &lt;LineBreak/&gt;1,2,3,4 - Rocks miss. No effect.
  &lt;LineBreak/&gt;5 - Character suffers one wound from flying rock chips. Mounts without a rider are caught by a rolling bolder, breaks a leg, and must be killed.
  &lt;LineBreak/&gt;6 - Character hit by heavy rock. Roll one die and add one for wounds suffered. Mounts without rider are hit and killed instantly. All of its load are buried beneath the rocks and are lost.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-          &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LandSlide</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r121 Sunstroke&lt;/Bold&gt;
+          &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/LandSlide.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r090 Quicksand&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your party stumbles into quicksand. Roll one die for each character or mount. If a character is riding a mount, you can roll for both together as a character. Alternatively, you can sacrifice the mount and its load in order to jump from it to safety.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+1,2,3 - Character or mount struggles out of the quicksand and is not harmed.&lt;LineBreak/&gt;
+4 - Character or mount escapes only if another character or mount is already free to pull it out. Otherwise, it sinks and dies.&lt;LineBreak/&gt;
+5 - Character struggles outward using vines and tree routes, but a mount is lost with everything it carries.&lt;LineBreak/&gt;
+6 - Character or mount is trapped in deepest part. They cannot win freedom and are automatically lost with everything carried.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                   &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Quicksand.gif' Height='150'  Width='150'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r091 Poison Snake&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your party unknowingly passes over the lair of a poison snake. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;One character
+ &lt;InlineUIContainer&gt;&lt;Button Content='r343' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ suffers snakebit poison wounds. Roll one die for the number of poison wounds received.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+              &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Snake.gif' Height='280'  Width='400'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;e094a Crocodiles in River&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your party is attacked by very large and very hungry crocodiles. They achieve surprise in combat  &lt;InlineUIContainer&gt;&lt;Button Content='r310' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. They have combat skill 4 and endurance of 6. Roll one die for the number fo crocs.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                 &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Crocs.gif' Height='200' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r095 Mounts at Risk&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;The strain of travelling is exhausting your mounts. Each mount requires a roll.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+ 1,2,3,4: No effect. Mount still in fair condition. 
+&lt;LineBreak/&gt; 5: Mount failing. Unless you rest &lt;InlineUIContainer&gt;&lt;Button Content='r203' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; , it  dies tomorrow.
+&lt;LineBreak/&gt; 6: Mount in serious condition. It dies immediately.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                 &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/MountTired.gif' Height='200' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r096 Mounts Sick&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;The adverse conditions finally take their toll on your mounts. All the mounts, including winged ones, roll at the end of each day until they die or recover. Possible outcomes are:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+ 1: Mount recovered. Do not roll further for it.&lt;LineBreak/&gt;
+ 2: Mount recovered if it did not travel today. Do not roll further. &lt;LineBreak/&gt;
+ 3: Mount still failing. Roll again at end of tomorrow.&lt;LineBreak/&gt;
+ 4,5,6: Mount dies now
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                 &lt;InlineUIContainer&gt;&lt;Image Name='MountsDie' Source='../bin/Images/MountsDie.gif' Height='200' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r097 Marsh Gas and Rot&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your entire party has unwittingly travelled into an area full of flesh-rot disease and mind-destroying marsh gas. Roll one die for each character. If a one results, the character escapes. Any other result means the character dies a mindless and raving idiot while his flesh rots from his bones before his eyes.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+         &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/FleshRot.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r098 Dragon Eye&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You encountered a huge, winged fire-breathing dragon.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Since you killed the dragon, you cut out its eyes. The dragon eyes are valued by High Priest and increases the chance of securing an audience with them.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+    &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/DragonEye.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r099 Roc Beak&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You encountered the Roc, a giagantic bird which swoops down on your party. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Since you killed the Roc, you cut off its beak.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Count Drogat  especially prizes the item, and it may help you gain an audience with him. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+In addition, the beak can be sold to any merchant, or in any town/castle/temple whenever you buy food. The beak is worth 35gp.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+         &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/RocBeak.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r100 Griffon Claws&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You killed a winged griffon.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You cut off its claws and carried them as an extra possession. They are especially valued by Lady Aeravir of Aeravir Castle, and it may help you gain audience with her.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+     &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/GriffonClaw.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r106 Heavy Overcast&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Thick, black clouds obscure your vision. You have become lost.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die for each character or unridden mount. A six means that the character or mount disppears into the overcast and is lost from your party.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Finally, the overcast will force you and the remainder of your party to land in the new hex. No futher travel is possible today. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+               &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Overcast.gif' Height='220' Width='480'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r107 Falcon Scout&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;At the evening meal each day, if you offer the falcon a food unit, roll the die. If you roll anyhing other than a six, the falcon will remain throughout tomorrow with your party as a guide.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                        &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Falcon.gif' Height='188' Width='250'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r109 Wild Pegasus&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You encounter a wild Pegasus. Each character in your party is allowed one attempt to capture it.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die. If the result is 5 plus, the character captures the Pegasus. You may add it as a winged mount to your party.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                 &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Pegasus.gif' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r111 Storm Demon Attacks&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You encounter a powerful demon of storms which attacks your party. Since you have no magicians, wizards, witches, priests, or monks in your party, it cannot be repeled. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You are unable to block the attack, and your entire party is blown away to be lost or killed. Your winged mount is killed, but your carried wealth and possessions are intact. The rest of your party is lost.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You crash in an adjacent hex. Roll one die for the number of wounds suffered.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                              &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/StormDemon.gif' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r121 Sunstroke&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;The heat of the sun is unexpected. Roll one die for each character and mount in your party. A six means he or it collapses from the sunstroke. Mounts that collapse must be left to die.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Characters that collapse must be carried if possible even if that means other loads must be abandoned per
  &lt;InlineUIContainer&gt;&lt;Button Content='r206' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Sunstroke victims cannot participate in hunting. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;If you suffer sunstroke and are not carried, your party leaves you behind and disappear. You suffer wounds equal to one die roll. You revive in time for the evening meal
  &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Click image to continue.
 &lt;LineBreak/&gt;
-                                    &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sun5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='250'  Width='250' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r180 Healing Potion&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;This potion can be applied once to any character including yourself at the end of the day after the evening meal
- &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-. The potion immediately cures all wounds except poison wounds.&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-          &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PotionHeal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='Possession' Height='500' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r181 Cure Poison Vial&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;This vial can be drunk once by any character during the evening meal
- &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-. It will cure all poisoned wounds overnight. Only poison wounds are cured. It has no effect on regular wounds. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-          &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PotionCure</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='Possession' Height='500' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r183 Endurance Sash&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You wear this sash around your waist. It adds one to your normal endurance level.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;The effect is permanet as long as you retain your possessions. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You cannot wear more than one sash. Additional ones may be given to other characters in your party. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-        &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sash</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='Possession' Height='30' Width='550'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r184 Resistance Talisman&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;The gold talisman allows you to resist all magic spells and attacks. Whenever magic is used, you can call upon the talisman to negate it.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;However, the talisman may be unable to contain a strong spell. Each time it is used, roll one die. A result of 6 means the spell is stopped and the talisman is shuttered and broken in the process.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TalismanResistance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='Possession' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r185 Poison Drug&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;This drug can be applied to the weapons of any one character in your party. Its use means that whenever that character strikes in combat
- &lt;InlineUIContainer&gt;&lt;Button Content='r220' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- and inflicts wounds, one extra poisoned wound is inflicted in addition to normal wounds.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;After a combat where the poisoned weapon is used, roll one die. A result of 6 means the poison has worn off and the weapon returns to normal.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Since a character often has multiple weapons, he has the option of using his poisoned weapon or a normal weapon as desired. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PoisonDrug</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='Possession' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r186 Magic Sword&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;A character can carry this special sword amoung his weapons. The magic sword adds one to the combat skill of the character with it.
-In addition, the blade's magic means that every wound it inflicts counts as a poisoned wound. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sword</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='Possession' Height='170' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r187 Anti-poison Amulet&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;This protects against all poisoned wounds. Any poison wound inflicted is ignored if the target has the amulet. Normal wounds still take effect. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Each time a poison wound is prevented, roll two die. If the result is 12, the amulet has reached its limit. It cannot absorb more poison and must be discarded. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-         &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AmuletAntiPoison</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='Possession' Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r193 Shield of Light&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;This enchanted shield will flash and shine in the eyes of any attacker. When a character has this shield, any opponent in combat has his combat skill reduced by one. If a character dies with the shield, the shield will dull and die becoming useless. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;At the end of each combat where the shield is used, roll one die. If a 6 is rolled, the shield is so banged and damaged by battle that it is now useless.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;To preserve the shield, you may elect to not use it in some combats. You can change your mind during the battle but must then check for damage after the battle. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                 &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Shield</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='Possession' Height='200' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r191 Resistance Ring&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-This ring creates a magic aura around the wearer. Every time the wearer is wounded, roll two die:
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
- 2-8: Blow warded by ring. Ignore wounds.&lt;LineBreak/&gt;
- 9-11: Blow skids around aura and strikes home. Take normal wound result minus one.&lt;LineBreak/&gt;
- 12: Ring fails. Blow has normal effect and ring melts in your finger cause injury and one additional wound.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-The ring can be used to ward poison wounds like normal wounds. The ring can also be used to ward magic attacks against the wearer, but it will not protect others in the party. In a magic attack, two rolls must be made, and the single worst result to the wearer is applied.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                  &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RingResistence</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='Possession' Height='200' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r190 Nerve Gas Bomb&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;This sealed jar is filled with a deadly and quick-acting gas created by a master alchemist. If you surprise an enemy in combat
- &lt;InlineUIContainer&gt;&lt;Button Content='r220' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;,
- instead of your initial strike, you entire party can stand-off and let you hurl the bomb.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;When you do, roll one die for each character encountered:
+                                    &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Sun5.gif' Height='250'  Width='250' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r123a Knight at the Bridge Refusal&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You refused the combat and end travel for the day. Roll one die for each character in your party. A six means they desert you for cowardice.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                         &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/BlackKnightRefuse.gif' Height='200'  Width='350' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r125 Raft Overturns&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;The raft is caught in an eddy, hits a rock, and overturns. Everyone in your party including mounts swims to shore. However, all wealth and all possessions are lost.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                   &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/RaftWhiteWater5.gif' Height='225'  Width='400' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r126 Raft Caught in Current&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your raft is swept downriver. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die for each mount and the characters in your party. A six indicates it is lost overboard and drowns. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you fall overboard, you can swim to shore, losing all your wealth, possessions, and mount. You party disppears downriver on the raft and is lost to you.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                   &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/RaftWhiteWater3.gif' Height='225'  Width='400' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r127 Raft in Rough Water&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your raft hits white water. All food stores piled on it are lost overboard.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;All characters, mounts, wealth, and possession are saved. Raft continues its journey safely.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                             &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/RaftWhiteWater1.gif' Height='300'  Width='300' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r128 Merchant&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+You meet a friendly merchant. You can either ignore him and end this event, or you can stop and chat to barter. If you stop, roll two die and consult the chart below:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+  2 - &lt;InlineUIContainer&gt;&lt;Button Content='e128a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - Merchant has Pegasus for sale.&lt;LineBreak/&gt;
+  3 - Merchant mentions cave tombs in this hex. &lt;InlineUIContainer&gt;&lt;Button Content=' Go ' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; to &lt;InlineUIContainer&gt;&lt;Button Content='e028' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; or &lt;InlineUIContainer&gt;&lt;Button Content='Skip' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; .&lt;LineBreak/&gt;
+  4 - &lt;InlineUIContainer&gt;&lt;Button Content='e128b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - Merchant has cure-poison vials for sale. Refer to &lt;InlineUIContainer&gt;&lt;Button Content='e181' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.&lt;LineBreak/&gt;
+  5 - Merchant mentions a farm nearby. If you investigate, see
+ &lt;InlineUIContainer&gt;&lt;Button Content='e009' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.&lt;LineBreak/&gt;
+  6 - &lt;InlineUIContainer&gt;&lt;Button Content='e128c' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - Merchant has has food for sale up to max of 8.&lt;LineBreak/&gt;
+  7 - &lt;InlineUIContainer&gt;&lt;Button Content='e128d' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - Merchant may outwit you. Roll one die. If exceeds wit and wiles, you spend coin needlessly.&lt;LineBreak/&gt;
+  8 - &lt;InlineUIContainer&gt;&lt;Button Content='e128e' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - Merchant has healing potion for sale
+ &lt;InlineUIContainer&gt;&lt;Button Content='e180' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.&lt;LineBreak/&gt;
+  9 - &lt;InlineUIContainer&gt;&lt;Button Content='e128f' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - Merchant has two horses for sale.&lt;LineBreak/&gt;
+  10 - Merchant has coffle of slaves for sale. See
+ &lt;InlineUIContainer&gt;&lt;Button Content='e163' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.&lt;LineBreak/&gt;
+  11 - Merchant provides some final clues about a treasure. See
+ &lt;InlineUIContainer&gt;&lt;Button Content='e147' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.&lt;LineBreak/&gt;
+  12 - Learn unique secrets from the merchant. See
+ &lt;InlineUIContainer&gt;&lt;Button Content='e162' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.&lt;LineBreak/&gt;
 &lt;LineBreak/&gt;
- 1,2,3,4: Character is killed by gas&lt;LineBreak/&gt;
- 5: Character flees from gas taking his wealth and possessions with him&lt;LineBreak/&gt;
- 6: Character is unaffected by gas
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-The jar with the gas is rather heavy. It counts as one load to transport
- &lt;InlineUIContainer&gt;&lt;Button Content='r206' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NerveGasBomb</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='Possession' Height='300' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;e189 Charisma Talisman&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;The character who wears this talisman improves his stature and charisma in the eyes of others. If you wear it, add one to your wit and wiles in any event or option that involves results from talk or negotiations. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;This talisman does not improve your wit and wiles when trying to evade, hide, attack, or surprise. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Like many magical devices, this talisman's spell may eventually wear out. After each use, roll two die. If the total is 12, it has worn out and must be discared. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                        &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TalismanCharisma</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='Possession' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r188a Pegasus Talisman&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-You have acquired a Pegaus Talisman. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Whenever you have any magician, wizard, witch, priest, or monk in your party; they can help you use the talisman to call upon an actual Pegasus winged mount. It will immediately appear and serve as your mount
- &lt;InlineUIContainer&gt;&lt;Button Content='r188' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TalismanPegasus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='Possession' Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r188 Pegasus Mount&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-You have acquired a Pegaus - a winged horse that allows you to travel airborne. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-The Pegasus is like a normal mount in all other respects including the same transport ability
- &lt;InlineUIContainer&gt;&lt;Button Content='r206' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-, food requirements
- &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;, 
- and lodging when in towns/castles/temples
- &lt;InlineUIContainer&gt;&lt;Button Content='r217' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-You can use the Pegasus as a normal mount on the ground if desired. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pegasus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='Possession' Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>r096</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r096 Mounts Sick&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;The adverse conditions finally take their toll on your mounts. All the mounts, including winged ones, roll at the end of each day until they die or recover. Possible outcomes are:
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
- 1: Mount recovered. Do not roll further for it.&lt;LineBreak/&gt;
- 2: Mount recovered if it did not travel today. Do not roll further. &lt;LineBreak/&gt;
- 3: Mount still failing. Roll again at end of tomorrow.&lt;LineBreak/&gt;
- 4,5,6: Mount dies now
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                 &lt;InlineUIContainer&gt;&lt;Image Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MountsDie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MountsDie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='200' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>r013a</t>
-  </si>
-  <si>
-    <t>r097</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r213 Rafting the Rivers&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You have the special option of using raft travel along the river instead of normal travel each day. When raft travel is available, you ride the raft until you get off by selecting a daily action other than raft travel; or when you roll 12 with two die after each day's travel. The latter represents the raft reaching a stopping point for lengthy loading, unloading, or dismantling.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;While on a raft, you travel on the river hexsides themselves. Your speed is either three hexsides per day downriver, or two hexsides per day upriver. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;At the end of the day, the raft halts for the night, and you camp on either hex adjacent to the hexside where travel ended. You can select which hex. After traveling the hexsides, check once for a travel event
- &lt;InlineUIContainer&gt;&lt;Button Content='r204' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- on the Travel Table
- &lt;InlineUIContainer&gt;&lt;Button Content='t207' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- under the 'rafting' row. Then check once for an event in the hex where you halted for the night.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
- --Trogoth River flows from east to west. &lt;LineBreak/&gt;
- --Nesser River flows north to south&lt;LineBreak/&gt;
- --Dienstal Branch flows from marsh feeding into the Nesser River &lt;LineBreak/&gt;
- --Largos River flows from marsh toward the NE off the map&lt;LineBreak/&gt;</t>
-  </si>
-  <si>
-    <t>r126</t>
-  </si>
-  <si>
-    <t>r125</t>
-  </si>
-  <si>
-    <t>r018</t>
-  </si>
-  <si>
-    <t>r129</t>
-  </si>
-  <si>
-    <t>r127</t>
-  </si>
-  <si>
-    <t>r128</t>
-  </si>
-  <si>
-    <t>r051</t>
-  </si>
-  <si>
-    <t>r091</t>
-  </si>
-  <si>
-    <t>r094a</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;e094a Crocodiles in River&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your party is attacked by very large and very hungry crocodiles. They achieve surprise in combat  &lt;InlineUIContainer&gt;&lt;Button Content='r310' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. They have combat skill 4 and endurance of 6. Roll one die for the number fo crocs.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                 &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Crocs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='200' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r018 Priest&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-You encounter a local priest riding a donkey. The Priest has combat skill 3, endurance 3, and wealth 25. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-He seems aloof and not disposed to conversation, but he may be afraid of you. You can let him pass, ending the encounter, or select one of the two options: Talk or Fight
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;Italic&gt;Note:&lt;/Italic&gt; If you do fight the Priest in combat, and kill him, roll one die. If a 5 plus, he casts upon you the 'Mark of Cain'. You must immediately roll once for each follower in your party, and any time the roll is greater than your wit and wiles, the follower will immediately desert you. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-In addition, all monks and priests in the future will recognize the mark and will not join your party. You can never attempt an audience
- &lt;InlineUIContainer&gt;&lt;Button Content='r211' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- with the high priest of any temple marked on the map, but may with high priest of any secret unmarked temples that you find.
-&lt;LineBreak/&gt;
-                              &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Priest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif'  Height='150' Width='150'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r129 Merchant Caravan&lt;/Bold&gt;
+                                          &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Merchant.gif' Height='150'  Width='93'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r129 Merchant Caravan&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;You meet a merchant caravan camp for the night. You can ignore them, or roll two die: 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
   2 - Learn unique secrets from various caravan members. See
@@ -3328,518 +3036,10 @@
  &lt;InlineUIContainer&gt;&lt;Button Content='e147' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.&lt;LineBreak/&gt;
   12 - Caravan passed a nearby ruins yesterday. Roll one die for which hex: 1-N,2-NE,3-SE, 4-S,5-SW,6-NW.&lt;LineBreak/&gt;
 &lt;LineBreak/&gt;
-                           &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Caravan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.gif' Height='150'  Width='300'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;	</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r128 Merchant&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-You meet a friendly merchant. You can either ignore him and end this event, or you can stop and chat to barter. If you stop, roll two die and consult the chart below:
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-  2 - &lt;InlineUIContainer&gt;&lt;Button Content='e128a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - Merchant has Pegasus for sale.&lt;LineBreak/&gt;
-  3 - Merchant mentions cave tombs in this hex. &lt;InlineUIContainer&gt;&lt;Button Content=' Go ' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; to &lt;InlineUIContainer&gt;&lt;Button Content='e028' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; or &lt;InlineUIContainer&gt;&lt;Button Content='Skip' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; .&lt;LineBreak/&gt;
-  4 - &lt;InlineUIContainer&gt;&lt;Button Content='e128b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - Merchant has cure-poison vials for sale. Refer to &lt;InlineUIContainer&gt;&lt;Button Content='e181' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.&lt;LineBreak/&gt;
-  5 - Merchant mentions a farm nearby. If you investigate, see
- &lt;InlineUIContainer&gt;&lt;Button Content='e009' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.&lt;LineBreak/&gt;
-  6 - &lt;InlineUIContainer&gt;&lt;Button Content='e128c' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - Merchant has has food for sale up to max of 8.&lt;LineBreak/&gt;
-  7 - &lt;InlineUIContainer&gt;&lt;Button Content='e128d' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - Merchant may outwit you. Roll one die. If exceeds wit and wiles, you spend coin needlessly.&lt;LineBreak/&gt;
-  8 - &lt;InlineUIContainer&gt;&lt;Button Content='e128e' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - Merchant has healing potion for sale
- &lt;InlineUIContainer&gt;&lt;Button Content='e180' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.&lt;LineBreak/&gt;
-  9 - &lt;InlineUIContainer&gt;&lt;Button Content='e128f' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - Merchant has two horses for sale.&lt;LineBreak/&gt;
-  10 - Merchant has coffle of slaves for sale. See
- &lt;InlineUIContainer&gt;&lt;Button Content='e163' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.&lt;LineBreak/&gt;
-  11 - Merchant provides some final clues about a treasure. See
- &lt;InlineUIContainer&gt;&lt;Button Content='e147' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.&lt;LineBreak/&gt;
-  12 - Learn unique secrets from the merchant. See
- &lt;InlineUIContainer&gt;&lt;Button Content='e162' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.&lt;LineBreak/&gt;
-&lt;LineBreak/&gt;
-                                          &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Merchant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='150'  Width='93'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r051 Bandits&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You are ambushed by bandits who surprise you in combat
- &lt;InlineUIContainer&gt;&lt;Button Content='r220' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;The number of bandits exceeds the number of characters in your party by two.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;One of the bandits is the leader with combat skill 6, endurance 6, and wealth 15. The rest have combat skill 5, endurance 4, and wealth 1.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                 &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bandit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='300' Width='180'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r091 Poison Snake&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your party unknowingly passes over the lair of a poison snake. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;One character
- &lt;InlineUIContainer&gt;&lt;Button Content='r343' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- suffers snakebit poison wounds. Roll one die for the number of poison wounds received.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-              &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Snake</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='280'  Width='400'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r210 Seeking to Hire Followers&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;In this daily action, you spend the day posting notices, visiting agents/merchants, and inquiring at taverns about the availability of hired help. Roll two die and consult the list below for results: 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
- 2 -  Freeman joins your party at no cost (except food and lodging). He has a combat skill 3 and endurnace 4.&lt;LineBreak/&gt;
- 3 -  Lancer with a horse can be hired for 3 gold per day. He  has a combat skill of 5 and endurance of 5.&lt;LineBreak/&gt;
- 4 -  One or two mercenaries can be hired for 2 gold each day each. Each has a combat skill 4 and endurance 4.&lt;LineBreak/&gt;
- 5 -  Horse deal in the area. You can buy horses at 10 golds each.&lt;LineBreak/&gt;
- 6 -  Local guide available
- &lt;InlineUIContainer&gt;&lt;Button Content='r205' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-. Hires fro 2 gold per day. He has a combat skill of 2 and endurnace 3.&lt;LineBreak/&gt;
- 7 -  Henchmen available. Roll one die for the number available for hire. Each cost 1 gold per day and has a combat skill 2 and endurance 3.&lt;LineBreak/&gt;
- 8 -  Slave market. See
- &lt;InlineUIContainer&gt;&lt;Button Content='e163' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;
- 9 -  Nothing available, but you gain some news and information. See
- &lt;InlineUIContainer&gt;&lt;Button Content='r209' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- but subtract one from your dice roll.&lt;LineBreak/&gt;
- 10 - Honest horse dealer in the area. You can buy horses for seven gold each.&lt;LineBreak/&gt;
- 11 - Runaway boy or girl joins your party at no cost (except food and lodging). He/She has a combat skill 1 and endurance 3.&lt;LineBreak/&gt;
- 12 - Porters in any quantity are available. Hire for 1/2 gold each day. In addition, a local guide
- &lt;InlineUIContainer&gt;&lt;Button Content='r205' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- can be hired for 2 gold per day. He/she has a combat skill 2 and endurance 3.</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r125 Raft Overturns&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;The raft is caught in an eddy, hits a rock, and overturns. Everyone in your party including mounts swims to shore. However, all wealth and all possessions are lost.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RaftWhiteWater5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='225'  Width='400' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r126 Raft Caught in Current&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your raft is swept downriver. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die for each mount and the characters in your party. A six indicates it is lost overboard and drowns. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you fall overboard, you can swim to shore, losing all your wealth, possessions, and mount. You party disppears downriver on the raft and is lost to you.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RaftWhiteWater3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='225'  Width='400' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r127 Raft in Rough Water&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your raft hits white water. All food stores piled on it are lost overboard.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;All characters, mounts, wealth, and possession are saved. Raft continues its journey safely.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                             &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RaftWhiteWater1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='300'  Width='300' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>r123a</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r123a Knight at the Bridge Refusal&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You refused the combat and end travel for the day. Roll one die for each character in your party. A six means they desert you for cowardice.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                         &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BlackKnightRefuse</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='200'  Width='350' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r205c Airborne&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If your party is flying (using an airborne move), use the airborne line on the Travel Table
- &lt;InlineUIContainer&gt;&lt;Button Name='myButtonT207' Content='t207' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- instead of the normal terrain line, to see whether you are lost. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you get lost while making airborne travel, there is danger of extra wander or drift. Roll one die, if the result is 4 or more, drift one random hex direction.</t>
-  </si>
-  <si>
-    <t>r106</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r106 Heavy Overcast&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Thick, black clouds obscure your vision. You have become lost.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die for each character or unridden mount. A six means that the character or mount disppears into the overcast and is lost from your party.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Finally, the overcast will force you and the remainder of your party to land in the new hex. No futher travel is possible today. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-               &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Overcast</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='220' Width='480'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>r107</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r107 Falcon Scout&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;At the evening meal each day, if you offer the falcon a food unit, roll the die. If you roll anyhing other than a six, the falcon will remain throughout tomorrow with your party as a guide.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                        &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Falcon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='188' Width='250'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>r109</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r109 Wild Pegasus&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You encounter a wild Pegasus. Each character in your party is allowed one attempt to capture it.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die. If the result is 5 plus, the character captures the Pegasus. You may add it as a winged mount to your party.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                 &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pegasus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>r111</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r111 Storm Demon Attacks&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You encounter a powerful demon of storms which attacks your party. Since you have no magicians, wizards, witches, priests, or monks in your party, it cannot be repeled. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You are unable to block the attack, and your entire party is blown away to be lost or killed. Your winged mount is killed, but your carried wealth and possessions are intact. The rest of your party is lost.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You crash in an adjacent hex. Roll one die for the number of wounds suffered.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                              &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>StormDemon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r281 Special Travel Reference&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Refer to the Travel Table
- &lt;InlineUIContainer&gt;&lt;Button Content='t207' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- and roll one die.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Using the appropriate line for the terrain type you occupy, read across to the Event References column and use the column listed for that die roll. This will produce a Travel Event Reference specified in the table.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r201 Characters&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Each character in the game has a combat skill, an endurance value, and a wealth code. Each is rated numerically, with higher numbers being better. If no wealth code is given, it is presumed to be zero.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your party includes yourself
- &lt;InlineUIContainer&gt;&lt;Button Content='r202' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-;  any followers who join your 'party'; and finally any men, women, creatures, and animals encountered in the course of the game. Characters can be friendly or hostile, intelligent or unintelligent.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;When a character joins your party, their vital statistics are noted. You can voluntarily dismiss or abandon members of your party if you wish (sometimes expedient when making an escape or when food/money is short). Any characters encountered simply go on thier way and disappear from the game unless they join your party.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;To determine your own personal characteristics at the start of the game, see
- &lt;InlineUIContainer&gt;&lt;Button Content='r202' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
-    <t>r057</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r057 Troll Skin&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;A hugh stone-skinned troll was killed by your party. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Since you killed the troll, its stone-skin is a valuble item. Whenever you have an opportunity to buy food at a town, castle, temple, or from merchants; you can sell the skin for 50 gold pieces. It is also known that Count Drogat of Drogat Castle will treasure the gift should you manage to get a personal audience with him.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/TrollSkin.gif' Height='300' Width='166'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
-    <t>r099</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r097 Marsh Gas and Rot&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your entire party has unwittingly travelled into an area full of flesh-rot disease and mind-destroying marsh gas. Roll one die for each character. If a one results, the character escapes. Any other result means the character dies a mindless and raving idiot while his flesh rots from his bones before his eyes.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-         &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FleshRot</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>r098</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r099 Roc Beak&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You encountered the Roc, a giagantic bird which swoops down on your party. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Since you killed the Roc, you cut off its beak.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Count Drogat  especially prizes the item, and it may help you gain an audience with him. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-In addition, the beak can be sold to any merchant, or in any town/castle/temple whenever you buy food. The beak is worth 35gp.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-         &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RocBeak</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>r100</t>
-  </si>
-  <si>
-    <t>r140</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r140 Magic Box Found&lt;/Bold&gt;
+                           &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Caravan.gif' Height='150'  Width='300'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r140 Magic Box Found&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;You find a magic box. You can open it only if you have a magician, wizard, or witch in your party. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Until then, you  carry it with you since it is relatively light.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Once such a person is in you party, you can open it and examine the contents. THe contents may be one of the following:
@@ -3850,105 +3050,10 @@
  5 - Random Possession&lt;LineBreak/&gt;
  6 - Nothing but rubbish
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                 &lt;InlineUIContainer&gt;&lt;Image  Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BoxUnopened</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.gif' Name='BoxUnopened' Height='200'  Width='200'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt; </t>
-    </r>
-  </si>
-  <si>
-    <t>r141</t>
-  </si>
-  <si>
-    <t>r212m</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r192 Resurrection Necklace&lt;/Bold&gt;
-&lt;LineBreak/&gt;
-This necklace of black opals and red rubies holds the secret of a second life. If the wearer dies for any reason, including voluntary suicide, at the end of the day, the character rises from the dead.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-The necklace disintegrates as the character revives and thus only works once. The resurrection occurs in the same hex, but the character is now free to select any action on the next day. A character revived by the necklace has a somewhat ghoulish cast and is a bit weaker. Endurance is reduced by one. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If the Prince is revived by the necklace having been left for dead, he will have lost all possessions and money. The entire party will have scattered although a lover might return
- &lt;InlineUIContainer&gt;&lt;Button Content='r228' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-You learn that such appearances are favored at the Dragot Castle. You can add one if seeking an audience
- &lt;InlineUIContainer&gt;&lt;Button Content='r211' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- with Count Dragot. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                             &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Necklace</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='Possession' Height='200' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r098 Dragon Eye&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You encountered a huge, winged fire-breathing dragon.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Since you killed the dragon, you cut out its eyes. The dragon eyes are valued by High Priest and increases the chance of securing an audience with them.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-    &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DragonEye</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r141 Hydra's Teeth&lt;/Bold&gt;
+                                 &lt;InlineUIContainer&gt;&lt;Image  Source='../bin/Images/BoxUnopened.gif' Name='BoxUnopened' Height='200'  Width='200'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r141 Hydra's Teeth&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 The magician/wizard/witch explains that whenever you scatter these teeth on the ground, that number of undead warriors will rise and fight in your party for one combat at your command.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
@@ -3956,239 +3061,7 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 You can scatter the teeth at any instant to use them that one time including at the start or during any combat.
 &lt;LineBreak/&gt;
-                              &lt;InlineUIContainer&gt;&lt;Image  Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Teeth</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.gif' Height='200'  Width='200'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt; </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r100 Griffon Claws&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You killed a winged griffon.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You cut off its claws and carried them as an extra possession. They are especially valued by Lady Aeravir of Aeravir Castle, and it may help you gain audience with her.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-     &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GriffonClaw</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r013a Rich Peasant Family&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;Italic&gt;Friendly Approach:&lt;/Italic&gt;The family provides food and lodging as if you are in town with the same penalities if you refuse to pay.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Family may sell horses. Roll one die, and a result of 4 plus means they do. If they have stables, roll again for the number of horses available for sale. Roll one die again and double it for the price per horse. They will sell horses at this rate and will also sell food at 2 food units per gold piece. An unlimited amount of food is available for sale.
-&lt;LineBreak/&gt;
-&lt;LineBreak/&gt;
-                        &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lodging</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif'  Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r073a Hostile Witch&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your party must escape
- &lt;InlineUIContainer&gt;&lt;Button Content='r218' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- immediately. Roll one die for each character in your party including yourself. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If a six occurs, the character is turned into a frog and is lost. If you are turned into a frog; any frog, lover, magician, or friendly witch surviving in your party can turn you back.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Otherwise, you remain a frog for years and lose the game. 
-&lt;LineBreak/&gt; &lt;LineBreak/&gt;
-                           &lt;InlineUIContainer&gt;&lt;Image Name='Witch' Source='../../Images/Witch.gif' Height='300' Width='240'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r090 Quicksand&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your party stumbles into quicksand. Roll one die for each character or mount. If a character is riding a mount, you can roll for both together as a character. Alternatively, you can sacrifice the mount and its load in order to jump from it to safety.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-1,2,3 - Character or mount struggles out of the quicksand and is not harmed.&lt;LineBreak/&gt;
-4 - Character or mount escapes only if another character or mount is already free to pull it out. Otherwise, it sinks and dies.&lt;LineBreak/&gt;
-5 - Character struggles outward using vines and tree routes, but a mount is lost with everything it carries.&lt;LineBreak/&gt;
-6 - Character or mount is trapped in deepest part. They cannot win freedom and are automatically lost with everything carried.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Quicksand</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='150'  Width='150'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r203a Prison Escape Attempt&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;Italic&gt;Escape:&lt;/Italic&gt; Prison break! Roll one die for each character in your party who was imprisoned with you. They are part of the escape on 3+. Otherwise, they are unable to join the escape or have already been executed.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If an escape occurs, use the escape rules
- &lt;InlineUIContainer&gt;&lt;Button Content='r218' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- to determine where you end up. The escape takes the entire day and after you must prepare for the evening meals
- &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;                                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>JailBreak</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.gif' Height='250'  Width='250'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;r212m Gods Declare Crusade&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;The gods declare your cause a religious crusade and the Staff of Command is passed into your hands. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you bring this possession to any hex north of the, you will command instant obedience throughout the Norhlands, regain your throne, and win the game! 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-              &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Staff</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='300' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r326 Pass with Talk&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You think you can lull their suspicions. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die. If your wit and wiles equals or exceeds the roll, the encountered characters let your party pass. The event ends.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Otherwise, see
- &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR330' Content='r330' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- and add one from the die roll there.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r329 Pass Tough&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Characters encountered have an unpleasant gleem in their eyes. You try to create a favorable impression anyway..
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die. If your wit and wiles exceeds the roll, they let your party pass and the event ends.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Otherwise, see
- &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR330' Content='r330' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- and subtract one from the die roll there.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r339 Convince Hirelings&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Characters encountered look askance at you and will pass you by unless you stop to talk. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you stop to talk, you decide you should convince them to join your party as henchmen. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die. If you wit and wiles exeeds the die roll, they can join at two gold pieces per day with today's pay due right now. You can hire some instead of all you desire. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you stop to talk but fail to convince them to join as hirelings, roll one die to determine their attitude:
-&lt;LineBreak/&gt;&lt;LineBreak/&gt; 1,2,3 -
- &lt;InlineUIContainer&gt;&lt;Button Content='r325' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt; 4,5,6 -
- &lt;InlineUIContainer&gt;&lt;Button Content='r330' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r212j High Priestess Request Audience&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;High Priestess requests an audience
- &lt;InlineUIContainer&gt;&lt;Button Name='myButtonE155' Content='e155' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r009 Farm&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You spot a small farm ahead. You may detour around it but that will consume the rest of the day ending travel for today.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Alternately, you can go up to it. If you approach the farm, you must decide whether to make it a friendly approach or a raid. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='e009a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;Italic&gt; - Friendly Approach&lt;/Italic&gt;
-&lt;LineBreak/&gt;&lt;InlineUIContainer&gt;&lt;Button Content='e009b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;Italic&gt; - Raid&lt;/Italic&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If you select a raid and remain in this hex at the end of today, you may be attacked by a revengful mob tomorrow morning before you have a chance to do your daily action. At that time, roll one die. A result of 5+ results in a peasant mob in hot pursuit.  If any other number occurs, there is no mob or event.</t>
-  </si>
-  <si>
-    <t>r146</t>
+                              &lt;InlineUIContainer&gt;&lt;Image  Source='../bin/Images/Teeth.gif' Height='200'  Width='200'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt; </t>
   </si>
   <si>
     <t>&lt;Bold&gt;r146 The Secret of Count Dragot&lt;/Bold&gt;
@@ -4205,23 +3078,184 @@
  &lt;InlineUIContainer&gt;&lt;Button Content='r218' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
  with wealth 110. However, you can never return to the castle hex due to the Count's anger. In the process of the theft, you might acquire magic items as part of the wealth 110 check. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                     &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/FoulBane.gif' Name='EncounterEnd' Height='250' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r216a Follower Starvation&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If followers are not fed, they may desert. Roll two dice for each follower, and subtract your wit and wiles from the total. If the result is 4 or more, the follwer deserts your party. Otherwise, he/she stays and suffers from the character starvation
- &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR216b' Content='r216b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you have food units or money to purchase it (in a town, castle, or temple), you cannot voluntarily withhold food from your followers unless you go without yourself as well. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If there is insufficient food for all, either you withhold it from all (including yourself) or share out what is available to all (this prevents the effects of character starvation
- &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR216b1' Content='r216b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;).
- However, this does not eliminate the risk of desertion described above with character starvation.</t>
+                                     &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/FoulBane.gif' Name='EncounterEnd' Height='250' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r180 Healing Potion&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;This potion can be applied once to any character including yourself at the end of the day after the evening meal
+ &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+. The potion immediately cures all wounds except poison wounds.&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+          &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/PotionHeal.gif' Name='Possession' Height='500' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r181 Cure Poison Vial&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;This vial can be drunk once by any character during the evening meal
+ &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+. It will cure all poisoned wounds overnight. Only poison wounds are cured. It has no effect on regular wounds. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+          &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/PotionCure.gif' Name='Possession' Height='500' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r183 Endurance Sash&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You wear this sash around your waist. It adds one to your normal endurance level.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;The effect is permanet as long as you retain your possessions. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You cannot wear more than one sash. Additional ones may be given to other characters in your party. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+        &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Sash.gif' Name='Possession' Height='30' Width='550'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r184 Resistance Talisman&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;The gold talisman allows you to resist all magic spells and attacks. Whenever magic is used, you can call upon the talisman to negate it.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;However, the talisman may be unable to contain a strong spell. Each time it is used, roll one die. A result of 6 means the spell is stopped and the talisman is shuttered and broken in the process.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                   &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/TalismanResistance.gif' Name='Possession' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r185 Poison Drug&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;This drug can be applied to the weapons of any one character in your party. Its use means that whenever that character strikes in combat
+ &lt;InlineUIContainer&gt;&lt;Button Content='r220' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ and inflicts wounds, one extra poisoned wound is inflicted in addition to normal wounds.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;After a combat where the poisoned weapon is used, roll one die. A result of 6 means the poison has worn off and the weapon returns to normal.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Since a character often has multiple weapons, he has the option of using his poisoned weapon or a normal weapon as desired. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                   &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/PoisonDrug.gif' Name='Possession' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r186 Magic Sword&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;A character can carry this special sword amoung his weapons. The magic sword adds one to the combat skill of the character with it.
+In addition, the blade's magic means that every wound it inflicts counts as a poisoned wound. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                   &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Sword.gif' Name='Possession' Height='170' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r187 Anti-poison Amulet&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;This protects against all poisoned wounds. Any poison wound inflicted is ignored if the target has the amulet. Normal wounds still take effect. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Each time a poison wound is prevented, roll two die. If the result is 12, the amulet has reached its limit. It cannot absorb more poison and must be discarded. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+         &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/AmuletAntiPoison.gif' Name='Possession' Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r188 Pegasus Mount&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+You have acquired a Pegaus - a winged horse that allows you to travel airborne. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The Pegasus is like a normal mount in all other respects including the same transport ability
+ &lt;InlineUIContainer&gt;&lt;Button Content='r206' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+, food requirements
+ &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;, 
+ and lodging when in towns/castles/temples
+ &lt;InlineUIContainer&gt;&lt;Button Content='r217' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+You can use the Pegasus as a normal mount on the ground if desired. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                   &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Pegasus.gif' Name='Possession' Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r188a Pegasus Talisman&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+You have acquired a Pegaus Talisman. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Whenever you have any magician, wizard, witch, priest, or monk in your party; they can help you use the talisman to call upon an actual Pegasus winged mount. It will immediately appear and serve as your mount
+ &lt;InlineUIContainer&gt;&lt;Button Content='r188' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                   &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/TalismanPegasus.gif' Name='Possession' Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;e189 Charisma Talisman&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;The character who wears this talisman improves his stature and charisma in the eyes of others. If you wear it, add one to your wit and wiles in any event or option that involves results from talk or negotiations. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;This talisman does not improve your wit and wiles when trying to evade, hide, attack, or surprise. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Like many magical devices, this talisman's spell may eventually wear out. After each use, roll two die. If the total is 12, it has worn out and must be discared. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                        &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/TalismanCharisma.gif' Name='Possession' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r190 Nerve Gas Bomb&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;This sealed jar is filled with a deadly and quick-acting gas created by a master alchemist. If you surprise an enemy in combat
+ &lt;InlineUIContainer&gt;&lt;Button Content='r220' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;,
+ instead of your initial strike, you entire party can stand-off and let you hurl the bomb.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;When you do, roll one die for each character encountered:
+&lt;LineBreak/&gt;
+ 1,2,3,4: Character is killed by gas&lt;LineBreak/&gt;
+ 5: Character flees from gas taking his wealth and possessions with him&lt;LineBreak/&gt;
+ 6: Character is unaffected by gas
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The jar with the gas is rather heavy. It counts as one load to transport
+ &lt;InlineUIContainer&gt;&lt;Button Content='r206' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                   &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/NerveGasBomb.gif' Name='Possession' Height='300' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r191 Resistance Ring&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+This ring creates a magic aura around the wearer. Every time the wearer is wounded, roll two die:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+ 2-8: Blow warded by ring. Ignore wounds.&lt;LineBreak/&gt;
+ 9-11: Blow skids around aura and strikes home. Take normal wound result minus one.&lt;LineBreak/&gt;
+ 12: Ring fails. Blow has normal effect and ring melts in your finger cause injury and one additional wound.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The ring can be used to ward poison wounds like normal wounds. The ring can also be used to ward magic attacks against the wearer, but it will not protect others in the party. In a magic attack, two rolls must be made, and the single worst result to the wearer is applied.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                  &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/RingResistence.gif' Name='Possession' Height='200' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r192 Resurrection Necklace&lt;/Bold&gt;
+&lt;LineBreak/&gt;
+This necklace of black opals and red rubies holds the secret of a second life. If the wearer dies for any reason, including voluntary suicide, at the end of the day, the character rises from the dead.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The necklace disintegrates as the character revives and thus only works once. The resurrection occurs in the same hex, but the character is now free to select any action on the next day. A character revived by the necklace has a somewhat ghoulish cast and is a bit weaker. Endurance is reduced by one. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the Prince is revived by the necklace having been left for dead, he will have lost all possessions and money. The entire party will have scattered although a lover might return
+ &lt;InlineUIContainer&gt;&lt;Button Content='r228' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+You learn that such appearances are favored at the Dragot Castle. You can add one if seeking an audience
+ &lt;InlineUIContainer&gt;&lt;Button Content='r211' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ with Count Dragot. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                             &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Necklace.gif' Name='Possession' Height='200' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r193 Shield of Light&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;This enchanted shield will flash and shine in the eyes of any attacker. When a character has this shield, any opponent in combat has his combat skill reduced by one. If a character dies with the shield, the shield will dull and die becoming useless. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;At the end of each combat where the shield is used, roll one die. If a 6 is rolled, the shield is so banged and damaged by battle that it is now useless.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;To preserve the shield, you may elect to not use it in some combats. You can change your mind during the battle but must then check for damage after the battle. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                 &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Shield.gif' Name='Possession' Height='200' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r194 Royal Helm of Northlands&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;This ancient and sacred treasure has long been lost. Myths and tales still relate the great exploits of its wearers. Now, you hold this treasure which gives you automatic and indisputable right to the Northlands throne.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you return to either Ogon
+ &lt;InlineUIContainer&gt;&lt;Button Content='0101' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ or Weshor
+ &lt;InlineUIContainer&gt;&lt;Button Content='1501' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ towns with the helm, you will instantly be hailed as the rightful King of the Northlands and win the game!
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;In the meantime, possession of the helm increases your stature and self-confidence. Increase your wit and wiles by one.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                   &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Helmet.gif' Name='Possession' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r203a Prison Escape Attempt&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;Italic&gt;Escape:&lt;/Italic&gt; Prison break! Roll one die for each character in your party who was imprisoned with you. They are part of the escape on 3+. Otherwise, they are unable to join the escape or have already been executed.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If an escape occurs, use the escape rules
+ &lt;InlineUIContainer&gt;&lt;Button Content='r218' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ to determine where you end up. The escape takes the entire day and after you must prepare for the evening meals
+ &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;                                   &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/JailBreak.gif' Height='250'  Width='250'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r212m Gods Declare Crusade&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;The gods declare your cause a religious crusade and the Staff of Command is passed into your hands. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you bring this possession to any hex north of the, you will command instant obedience throughout the Norhlands, regain your throne, and win the game! 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+              &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Staff.gif' Height='300' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4231,20 +3265,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4597,8 +3617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4609,34 +3629,34 @@
   <sheetData>
     <row r="1" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>448</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -4649,215 +3669,215 @@
     </row>
     <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>440</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>430</v>
+        <v>393</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>431</v>
+        <v>394</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>432</v>
@@ -4865,66 +3885,66 @@
     </row>
     <row r="33" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>449</v>
+        <v>402</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>374</v>
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>375</v>
+        <v>436</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>339</v>
+        <v>404</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>376</v>
+        <v>437</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>377</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>378</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4932,31 +3952,31 @@
         <v>331</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>379</v>
+        <v>440</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>380</v>
+        <v>441</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>385</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4964,15 +3984,15 @@
         <v>328</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>384</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>383</v>
+        <v>445</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -4980,7 +4000,7 @@
         <v>332</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -4988,7 +4008,7 @@
         <v>333</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -4996,7 +4016,7 @@
         <v>334</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>381</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -5004,7 +4024,7 @@
         <v>335</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>337</v>
+        <v>449</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -5020,7 +4040,7 @@
         <v>17</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -5041,10 +4061,10 @@
     </row>
     <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -5132,7 +4152,7 @@
         <v>24</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -5172,7 +4192,7 @@
         <v>29</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -5180,7 +4200,7 @@
         <v>30</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -5188,7 +4208,7 @@
         <v>31</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="330" x14ac:dyDescent="0.25">
@@ -5196,7 +4216,7 @@
         <v>32</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -5204,7 +4224,7 @@
         <v>33</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="360" x14ac:dyDescent="0.25">
@@ -5212,7 +4232,7 @@
         <v>34</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="360" x14ac:dyDescent="0.25">
@@ -5308,7 +4328,7 @@
         <v>46</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>447</v>
+        <v>400</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -5329,10 +4349,10 @@
     </row>
     <row r="91" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -5340,7 +4360,7 @@
         <v>51</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -5420,7 +4440,7 @@
         <v>13</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>451</v>
+        <v>403</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -5484,7 +4504,7 @@
         <v>71</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -5508,7 +4528,7 @@
         <v>74</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -6060,7 +5080,7 @@
         <v>196</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -6276,7 +5296,7 @@
         <v>124</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>444</v>
+        <v>397</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -6300,7 +5320,7 @@
         <v>127</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>445</v>
+        <v>398</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -6380,7 +5400,7 @@
         <v>144</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>446</v>
+        <v>399</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -6396,7 +5416,7 @@
         <v>146</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -6404,7 +5424,7 @@
         <v>147</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">

--- a/Documentation/Rules.xlsx
+++ b/Documentation/Rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\Documents\Visual Studio 2022\Projects\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA2C8D97-977F-4C14-B4FE-4EC9D4D4866E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BE7F628-DD8D-4406-A64E-EF7571069F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-25320" yWindow="15" windowWidth="25440" windowHeight="15390" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -2930,12 +2930,6 @@
                &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Overcast.gif' Height='220' Width='480'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r107 Falcon Scout&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;At the evening meal each day, if you offer the falcon a food unit, roll the die. If you roll anyhing other than a six, the falcon will remain throughout tomorrow with your party as a guide.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                        &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Falcon.gif' Height='188' Width='250'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r109 Wild Pegasus&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;You encounter a wild Pegasus. Each character in your party is allowed one attempt to capture it.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die. If the result is 5 plus, the character captures the Pegasus. You may add it as a winged mount to your party.
@@ -3249,6 +3243,12 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;If you bring this possession to any hex north of the, you will command instant obedience throughout the Norhlands, regain your throne, and win the game! 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
               &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Staff.gif' Height='300' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r107 Falcon Scout&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;At the evening meal each day, if you offer the falcon a food unit, roll the die. If you roll anyhing other than a six, the falcon will remain throughout tomorrow with your party as a guide. You cannot get lost when you have the falcon.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                        &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Falcon.gif' Height='188' Width='250'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
 </sst>
 </file>
@@ -3617,8 +3617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3795,12 +3795,12 @@
         <v>421</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>385</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>422</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -3808,7 +3808,7 @@
         <v>386</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -3816,7 +3816,7 @@
         <v>387</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -3824,7 +3824,7 @@
         <v>365</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -3832,7 +3832,7 @@
         <v>382</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -3840,7 +3840,7 @@
         <v>373</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -3848,7 +3848,7 @@
         <v>372</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -3856,7 +3856,7 @@
         <v>376</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="360" x14ac:dyDescent="0.25">
@@ -3864,7 +3864,7 @@
         <v>377</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="375" x14ac:dyDescent="0.25">
@@ -3872,7 +3872,7 @@
         <v>375</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -3880,7 +3880,7 @@
         <v>394</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -3888,7 +3888,7 @@
         <v>395</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -3896,7 +3896,7 @@
         <v>402</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -3904,7 +3904,7 @@
         <v>339</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -3912,7 +3912,7 @@
         <v>340</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -3928,7 +3928,7 @@
         <v>341</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -3936,7 +3936,7 @@
         <v>342</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -3944,7 +3944,7 @@
         <v>343</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -3952,7 +3952,7 @@
         <v>331</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -3960,7 +3960,7 @@
         <v>344</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -3968,7 +3968,7 @@
         <v>345</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -3976,7 +3976,7 @@
         <v>348</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -3984,7 +3984,7 @@
         <v>328</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -3992,7 +3992,7 @@
         <v>346</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -4000,7 +4000,7 @@
         <v>332</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -4008,7 +4008,7 @@
         <v>333</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -4016,7 +4016,7 @@
         <v>334</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -4024,7 +4024,7 @@
         <v>335</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -4064,7 +4064,7 @@
         <v>351</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -4352,7 +4352,7 @@
         <v>396</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="210" x14ac:dyDescent="0.25">

--- a/Documentation/Rules.xlsx
+++ b/Documentation/Rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\Documents\Visual Studio 2022\Projects\BarbarianPrince\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BE7F628-DD8D-4406-A64E-EF7571069F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CE5E7B3-CC4C-470B-9F1E-A3732CADC550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="15" windowWidth="25440" windowHeight="15390" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -295,16 +295,6 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;If your party rested today in the hex, you can send additional characters to hunt. For each additional character hunting, add one to the skill+endurance level of your hunt. The actual skill and endurance of the additional hunters is not counted. However, if the additional hunters are gides, add one for each guide.</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r215c Populated Regions and Hunting&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you must hunt in a farmland hex, each time you roll one die for a possible event, which occurs after the hunt is finished, but before the evening meal is eaten: 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt; 1,2,3,4-Do nothing.
-&lt;LineBreak/&gt; 5-Peasant mob in pursuit
- &lt;InlineUIContainer&gt;&lt;Button Name='myButtonE017' Content='e017' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt; 6-Pursued by constabulary
- &lt;InlineUIContainer&gt;&lt;Button Name='myButtonE051' Content='e051' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Hunting is prohibited in any hex with a town, castle, or temple.</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r216c Mount Starvation&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;If animals in a party go without food, their carrying capacity is halved for each day of starvation just like characters. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;When the carrying capacity reaches zero, the mount dies. 
@@ -3249,6 +3239,16 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;At the evening meal each day, if you offer the falcon a food unit, roll the die. If you roll anyhing other than a six, the falcon will remain throughout tomorrow with your party as a guide. You cannot get lost when you have the falcon.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
                                         &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Falcon.gif' Height='188' Width='250'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r215c Populated Regions and Hunting&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you must hunt in a farmland hex, each time you roll one die for a possible event, which occurs after the hunt is finished, but before the evening meal is eaten: 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt; 1,2,3,4-Do nothing.
+&lt;LineBreak/&gt; 5-Peasant mob in pursuit
+ &lt;InlineUIContainer&gt;&lt;Button Content='e017' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt; 6-Pursued by constabulary
+ &lt;InlineUIContainer&gt;&lt;Button Content='e050' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Hunting is prohibited in any hex with a town, castle, or temple.</t>
   </si>
 </sst>
 </file>
@@ -3617,8 +3617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3629,402 +3629,402 @@
   <sheetData>
     <row r="1" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -4032,7 +4032,7 @@
         <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -4040,7 +4040,7 @@
         <v>17</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -4048,7 +4048,7 @@
         <v>18</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -4056,15 +4056,15 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -4077,50 +4077,50 @@
     </row>
     <row r="57" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -4128,7 +4128,7 @@
         <v>21</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -4152,7 +4152,7 @@
         <v>24</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4168,7 +4168,7 @@
         <v>26</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -4176,7 +4176,7 @@
         <v>27</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
@@ -4192,7 +4192,7 @@
         <v>29</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4200,7 +4200,7 @@
         <v>30</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -4208,7 +4208,7 @@
         <v>31</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="330" x14ac:dyDescent="0.25">
@@ -4216,7 +4216,7 @@
         <v>32</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -4224,7 +4224,7 @@
         <v>33</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="360" x14ac:dyDescent="0.25">
@@ -4232,7 +4232,7 @@
         <v>34</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="360" x14ac:dyDescent="0.25">
@@ -4240,7 +4240,7 @@
         <v>35</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -4248,7 +4248,7 @@
         <v>36</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -4256,7 +4256,7 @@
         <v>37</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4272,7 +4272,7 @@
         <v>39</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -4280,7 +4280,7 @@
         <v>40</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4288,7 +4288,7 @@
         <v>41</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4304,7 +4304,7 @@
         <v>43</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -4312,7 +4312,7 @@
         <v>44</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4320,7 +4320,7 @@
         <v>45</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -4328,7 +4328,7 @@
         <v>46</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4336,7 +4336,7 @@
         <v>47</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4344,15 +4344,15 @@
         <v>50</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -4360,7 +4360,7 @@
         <v>51</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -4368,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="300" x14ac:dyDescent="0.25">
@@ -4376,7 +4376,7 @@
         <v>5</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -4400,7 +4400,7 @@
         <v>8</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>63</v>
+        <v>451</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4408,7 +4408,7 @@
         <v>9</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4432,7 +4432,7 @@
         <v>12</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4440,7 +4440,7 @@
         <v>13</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4448,7 +4448,7 @@
         <v>14</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -4456,7 +4456,7 @@
         <v>15</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4464,7 +4464,7 @@
         <v>52</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4472,7 +4472,7 @@
         <v>61</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4480,7 +4480,7 @@
         <v>3</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -4488,7 +4488,7 @@
         <v>4</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -4496,103 +4496,103 @@
         <v>53</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -4600,839 +4600,839 @@
         <v>2</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Rules.xlsx
+++ b/Documentation/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CE5E7B3-CC4C-470B-9F1E-A3732CADC550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13E607DF-3C61-4B6B-9242-68ABB0404F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -2148,23 +2148,6 @@
 Roll one die to determine this wit and wiles rating. If the result is one, consider it a two instead. If you have played the game before and won, you may wish an extra challenge by using a wits and wiles rating one less than the previous value; if you lost in the previous game, use a wit and wiles one higher than the previous value.</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r200 How to Play&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;Italic&gt;Barbarian Prince&lt;/Italic&gt; is a dungeon cawler, self-paced, solo game. You play the game in days. Each day starts with your selecting a daily action
- &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR203' Content='r203' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-, such as traveling to a new hex on the map. Depending on the action selected, you will be referred to a chart, where you roll one or two die. The dice roll and the chart may then indicate a special event section, when you then resolve.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;After all events are resolved for your daily action, you must eat your main evening meal as described in the food rules
- &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR215' Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-, and if in a town, castle, or temple hex; you must also purchase lodging
- &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR217' Content='r217' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;This ends the day, and you continue play with the start of the next day, where you select another action. The game continues until either you are killed or 70 days (10 weeks) elapse. If you have not won before the 70 days ends, the game is automatically lost!
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Many events may lead to fighting, described in the combat rules
- &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR220' Content='r220' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-. You may also have additional characters
- &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR201' Content='r201' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- join your party. These additinal characters are especially useful in fights, although some may have special knowleddge or abiliities useful in certain events. Magicisns, wizards, witches, priests, and monks are especially useful pople to have in your party. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;All events are self explanatory, and refer to the main rules dialogs that describes how they are resolved.</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r206 Transport&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;When travelling; any food, gold, and possessions acquired by events must be carried. Many of these items have a weight in units of  'loads'. You can only carry a certain number of loads. Anything else must be left behind. Objects left behind can be placed in a cache
  &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR214' Content='r214' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
@@ -3249,6 +3232,23 @@
 &lt;LineBreak/&gt; 6-Pursued by constabulary
  &lt;InlineUIContainer&gt;&lt;Button Content='e050' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Hunting is prohibited in any hex with a town, castle, or temple.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r200 How to Play&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;Italic&gt;Barbarian Prince&lt;/Italic&gt; is a dungeon cawler, self-paced, solo game. You play the game in days. Each day starts with your selecting a daily action
+ &lt;InlineUIContainer&gt;&lt;Button Content='r203' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+, such as traveling to a new hex on the map. Depending on the action selected, you will be referred to a chart, where you roll one or two die. The dice roll and the chart may then indicate a special event section, when you then resolve.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;After all events are resolved for your daily action, you must eat your main evening meal as described in the food rules
+ &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+, and if in a town, castle, or temple hex; you must also purchase lodging
+ &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR217' Content='r217' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;This ends the day, and you continue play with the start of the next day, where you select another action. The game continues until either you are killed or 70 days (10 weeks) elapse. If you have not won before the 70 days ends, the game is automatically lost!
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Many events may lead to fighting, described in the combat rules
+ &lt;InlineUIContainer&gt;&lt;Button Content='r220' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+. You may also have additional characters
+ &lt;InlineUIContainer&gt;&lt;Button Content='r201' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ join your party. These additinal characters are especially useful in fights, although some may have special knowleddge or abiliities useful in certain events. Magicians, wizards, witches, priests, and monks are especially useful people to have in your party. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;All events are self explanatory, and refer to the main rules dialogs that describes how they are resolved.</t>
   </si>
 </sst>
 </file>
@@ -3617,8 +3617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3629,410 +3629,410 @@
   <sheetData>
     <row r="1" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>318</v>
+        <v>451</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -4040,7 +4040,7 @@
         <v>17</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -4056,15 +4056,15 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -4104,7 +4104,7 @@
         <v>207</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -4152,7 +4152,7 @@
         <v>24</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4168,7 +4168,7 @@
         <v>26</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -4176,7 +4176,7 @@
         <v>27</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
@@ -4192,7 +4192,7 @@
         <v>29</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4200,7 +4200,7 @@
         <v>30</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -4208,7 +4208,7 @@
         <v>31</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="330" x14ac:dyDescent="0.25">
@@ -4216,7 +4216,7 @@
         <v>32</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -4224,7 +4224,7 @@
         <v>33</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="360" x14ac:dyDescent="0.25">
@@ -4232,7 +4232,7 @@
         <v>34</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="360" x14ac:dyDescent="0.25">
@@ -4328,7 +4328,7 @@
         <v>46</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4349,10 +4349,10 @@
     </row>
     <row r="91" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -4360,7 +4360,7 @@
         <v>51</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -4400,7 +4400,7 @@
         <v>8</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4432,7 +4432,7 @@
         <v>12</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4440,7 +4440,7 @@
         <v>13</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4480,7 +4480,7 @@
         <v>3</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -4496,7 +4496,7 @@
         <v>53</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -4504,7 +4504,7 @@
         <v>70</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4528,7 +4528,7 @@
         <v>73</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4608,7 +4608,7 @@
         <v>85</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4616,7 +4616,7 @@
         <v>86</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -5080,7 +5080,7 @@
         <v>195</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -5296,7 +5296,7 @@
         <v>123</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -5320,7 +5320,7 @@
         <v>126</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -5400,7 +5400,7 @@
         <v>143</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -5416,7 +5416,7 @@
         <v>145</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -5424,7 +5424,7 @@
         <v>146</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">

--- a/Documentation/Rules.xlsx
+++ b/Documentation/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13E607DF-3C61-4B6B-9242-68ABB0404F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FA9E184-461D-4019-8894-8530F3FDA0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
   <si>
     <t>r203</t>
   </si>
@@ -3249,6 +3249,17 @@
  &lt;InlineUIContainer&gt;&lt;Button Content='r201' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
  join your party. These additinal characters are especially useful in fights, although some may have special knowleddge or abiliities useful in certain events. Magicians, wizards, witches, priests, and monks are especially useful people to have in your party. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;All events are self explanatory, and refer to the main rules dialogs that describes how they are resolved.</t>
+  </si>
+  <si>
+    <t>r049</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r049 Travelling Minstrel&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You have a musician that has joined your party.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If he is fed, he will sing a tale that night that prevents any of your party from deserting no matter what happened today.  This applies even if your followers are not properly fed or lodged.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;When at the evening meal, click his image to start him singing to prevent desertions.
+&lt;LineBreak/&gt; &lt;LineBreak/&gt; 
+                                                   &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Minstrel.gif' Height='280' Width='140'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
 </sst>
 </file>
@@ -3615,10 +3626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B226"/>
+  <dimension ref="A1:B227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3667,1777 +3678,1785 @@
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:2" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>414</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>422</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="375" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>432</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>402</v>
+        <v>433</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="41" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>436</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="45" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="47" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="55" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="56" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="57" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="59" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="60" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="61" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="62" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="63" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="64" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="65" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+    <row r="66" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="67" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    <row r="68" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    <row r="69" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    <row r="70" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="71" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="72" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    <row r="73" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="74" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="75" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+    <row r="76" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    <row r="79" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+    <row r="84" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+    <row r="87" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+    <row r="88" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+    <row r="90" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+    <row r="91" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+    <row r="92" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+    <row r="93" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+    <row r="94" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+    <row r="95" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+    <row r="96" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>450</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+    <row r="101" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+    <row r="102" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+    <row r="105" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+    <row r="108" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+    <row r="109" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+    <row r="112" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+    <row r="113" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+    <row r="114" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+    <row r="115" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+    <row r="116" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+    <row r="120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+    <row r="121" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+    <row r="122" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+    <row r="123" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+    <row r="124" spans="1:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+    <row r="125" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+    <row r="126" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+    <row r="127" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+    <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+    <row r="129" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+    <row r="130" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+    <row r="131" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+    <row r="132" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B182" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
+    <row r="183" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B183" s="1" t="s">
         <v>386</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B195" s="1" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B199" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
+    <row r="200" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B200" s="1" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B202" s="1" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B204" s="1" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B207" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
+    <row r="208" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B208" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
+    <row r="209" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B209" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
+    <row r="210" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B210" s="1" t="s">
         <v>395</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B212" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
+    <row r="213" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B213" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
+    <row r="214" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B214" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
+    <row r="215" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B215" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
+    <row r="216" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B216" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
+    <row r="217" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B217" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
+    <row r="218" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
+    <row r="219" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
+    <row r="220" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
+    <row r="221" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
+    <row r="222" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B222" s="1" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B224" s="1" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B226" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
+    <row r="227" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B227" s="1" t="s">
         <v>200</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A51:B226">
-    <sortCondition ref="A51:A226"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A52:B227">
+    <sortCondition ref="A52:A227"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Rules.xlsx
+++ b/Documentation/Rules.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FA9E184-461D-4019-8894-8530F3FDA0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C65E13BD-CD0F-4175-919A-D18F30EC037C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -3257,9 +3257,9 @@
     <t>&lt;Bold&gt;r049 Travelling Minstrel&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;You have a musician that has joined your party.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;If he is fed, he will sing a tale that night that prevents any of your party from deserting no matter what happened today.  This applies even if your followers are not properly fed or lodged.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;When at the evening meal, click his image to start him singing to prevent desertions.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;When at the evening meal, click his image to start him singing to prevent desertions. However, when he sings, he leaves the next day.
 &lt;LineBreak/&gt; &lt;LineBreak/&gt; 
-                                                   &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Minstrel.gif' Height='280' Width='140'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                               &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Minstrel.gif' Height='280' Width='140'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
 </sst>
 </file>
@@ -3628,7 +3628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Rules.xlsx
+++ b/Documentation/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C65E13BD-CD0F-4175-919A-D18F30EC037C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{919D4443-8489-43EB-889E-F28D94218CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="456">
   <si>
     <t>r203</t>
   </si>
@@ -3260,6 +3260,18 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;When at the evening meal, click his image to start him singing to prevent desertions. However, when he sings, he leaves the next day.
 &lt;LineBreak/&gt; &lt;LineBreak/&gt; 
                                &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Minstrel.gif' Height='280' Width='140'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>r146a</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;e146a Stealing Count Drogat Jewels&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Using the foulbane in Drogat Castle, you can spend a day instead of a normal daily action in arranging for a special theft of the Count's personnel jewels.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;At the end of the day, you escape from the hex
+ &lt;InlineUIContainer&gt;&lt;Button Content='r218' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ with wealth 110. However, you can never return to the castle hex due to the Count's anger. In the process of the theft, you might acquire magic items as part of the wealth 110 check. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                      &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/CountDrogatJewels.gif' Name='CountDrogatJewels' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
 </sst>
 </file>
@@ -3626,10 +3638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B227"/>
+  <dimension ref="A1:B228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3918,1545 +3930,1553 @@
         <v>431</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>432</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>402</v>
+        <v>433</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="41" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>436</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="45" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="47" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="55" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="56" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="57" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="59" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="60" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="61" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="62" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="63" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="64" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="65" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+    <row r="66" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="67" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    <row r="68" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    <row r="69" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    <row r="70" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="71" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="72" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    <row r="73" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="74" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="75" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+    <row r="76" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+    <row r="77" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    <row r="80" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+    <row r="81" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+    <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+    <row r="85" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+    <row r="88" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+    <row r="89" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+    <row r="90" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+    <row r="91" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+    <row r="92" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+    <row r="93" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+    <row r="94" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+    <row r="95" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+    <row r="96" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+    <row r="97" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>450</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+    <row r="102" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+    <row r="103" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+    <row r="106" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+    <row r="109" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+    <row r="110" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+    <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+    <row r="114" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+    <row r="115" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+    <row r="116" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+    <row r="117" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+    <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+    <row r="122" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+    <row r="123" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+    <row r="124" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+    <row r="125" spans="1:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+    <row r="126" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+    <row r="127" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+    <row r="128" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+    <row r="129" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+    <row r="130" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+    <row r="131" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+    <row r="132" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
+    <row r="133" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B183" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
+    <row r="184" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B184" s="1" t="s">
         <v>386</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B196" s="1" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B200" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
+    <row r="201" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B201" s="1" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B203" s="1" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B205" s="1" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B208" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
+    <row r="209" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B209" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
+    <row r="210" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B210" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
+    <row r="211" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B211" s="1" t="s">
         <v>395</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B213" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
+    <row r="214" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B214" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
+    <row r="215" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B215" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
+    <row r="216" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B216" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
+    <row r="217" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B217" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
+    <row r="218" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
+    <row r="219" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
+    <row r="220" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
+    <row r="221" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
+    <row r="222" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B222" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
+    <row r="223" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B223" s="1" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B225" s="1" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B227" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
+    <row r="228" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B228" s="1" t="s">
         <v>200</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A52:B227">
-    <sortCondition ref="A52:A227"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:B228">
+    <sortCondition ref="A53:A228"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Rules.xlsx
+++ b/Documentation/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{919D4443-8489-43EB-889E-F28D94218CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AF51151-AD38-4E97-8399-4C27F38DD632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -3266,7 +3266,7 @@
   </si>
   <si>
     <t>&lt;Bold&gt;e146a Stealing Count Drogat Jewels&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Using the foulbane in Drogat Castle, you can spend a day instead of a normal daily action in arranging for a special theft of the Count's personnel jewels.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Using the foulbane in Drogat Castle, you can spend a &lt;Bold&gt;Steal Gems&lt;/Bold&gt; action instead of a normal daily action in arranging for a special theft of the Count's personnel jewels.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;At the end of the day, you escape from the hex
  &lt;InlineUIContainer&gt;&lt;Button Content='r218' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
  with wealth 110. However, you can never return to the castle hex due to the Count's anger. In the process of the theft, you might acquire magic items as part of the wealth 110 check. 
@@ -3640,8 +3640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/Rules.xlsx
+++ b/Documentation/Rules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AF51151-AD38-4E97-8399-4C27F38DD632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FF562EA7-8599-41C5-801E-6C8C255A4778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -2219,17 +2219,6 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Escapes across a river are prohibited. However, if your entire party has winged mounts or are able to fly, you can fly over the river and escape that way. Similarly, you cannot escape off the map.</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r216 Starvation&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you cannot provide food each day for characters or mounts, startvation will begin to affect their loyalty and performance. Each unit is sufficient to feed one person for one day. Mounts require two units per day if they are unable to forage for their own fodder. In a desert hext with no oasis, the food requirement doubles for men and mounts to represent the need to also carry water supplies.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-  &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR216a' Content='r216a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- Follower Starvation&lt;LineBreak/&gt;
-  &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR216b' Content='r216b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- Character Starvation&lt;LineBreak/&gt;
-  &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR216c' Content='r216c' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- Mount Starvation</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r225a Special Possessions&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Sometimes the result of the Treasure Table
  &lt;InlineUIContainer&gt;&lt;Button Content='t226' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
@@ -3272,6 +3261,17 @@
  with wealth 110. However, you can never return to the castle hex due to the Count's anger. In the process of the theft, you might acquire magic items as part of the wealth 110 check. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
                       &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/CountDrogatJewels.gif' Name='CountDrogatJewels' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r216 Starvation&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you cannot provide food each day for characters or mounts, startvation will begin to affect their loyalty and performance. Each food unit is sufficient to feed one person for one day. Mounts require two units per day if they are unable to forage for their own fodder. In a desert hext with no oasis, the food requirement doubles for men and mounts to represent the need to also carry water supplies.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+  &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR216a' Content='r216a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ Follower Starvation&lt;LineBreak/&gt;
+  &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR216b' Content='r216b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ Character Starvation&lt;LineBreak/&gt;
+  &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR216c' Content='r216c' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ Mount Starvation</t>
   </si>
 </sst>
 </file>
@@ -3640,8 +3640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3652,418 +3652,418 @@
   <sheetData>
     <row r="1" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -4071,7 +4071,7 @@
         <v>19</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -4079,7 +4079,7 @@
         <v>17</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -4100,10 +4100,10 @@
     </row>
     <row r="57" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -4191,7 +4191,7 @@
         <v>24</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4231,7 +4231,7 @@
         <v>29</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4239,7 +4239,7 @@
         <v>30</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -4247,7 +4247,7 @@
         <v>31</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="330" x14ac:dyDescent="0.25">
@@ -4255,7 +4255,7 @@
         <v>32</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -4263,7 +4263,7 @@
         <v>33</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="360" x14ac:dyDescent="0.25">
@@ -4271,7 +4271,7 @@
         <v>34</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="360" x14ac:dyDescent="0.25">
@@ -4367,7 +4367,7 @@
         <v>46</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4388,10 +4388,10 @@
     </row>
     <row r="93" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -4399,7 +4399,7 @@
         <v>51</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -4439,7 +4439,7 @@
         <v>8</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4471,7 +4471,7 @@
         <v>12</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>323</v>
+        <v>455</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4479,7 +4479,7 @@
         <v>13</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4535,7 +4535,7 @@
         <v>53</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -4543,7 +4543,7 @@
         <v>70</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4567,7 +4567,7 @@
         <v>73</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4647,7 +4647,7 @@
         <v>85</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4655,7 +4655,7 @@
         <v>86</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -5119,7 +5119,7 @@
         <v>195</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -5335,7 +5335,7 @@
         <v>123</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -5359,7 +5359,7 @@
         <v>126</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -5439,7 +5439,7 @@
         <v>143</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -5455,7 +5455,7 @@
         <v>145</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -5463,7 +5463,7 @@
         <v>146</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="60" x14ac:dyDescent="0.25">

--- a/Documentation/Rules.xlsx
+++ b/Documentation/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FF562EA7-8599-41C5-801E-6C8C255A4778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CED3FFA0-29E3-4DD4-A15F-257FB9D95E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="458">
   <si>
     <t>r203</t>
   </si>
@@ -3272,6 +3272,16 @@
  Character Starvation&lt;LineBreak/&gt;
   &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR216c' Content='r216c' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
  Mount Starvation</t>
+  </si>
+  <si>
+    <t>r144i</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r144i Baron Hauldra Sneak Attack&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+You can make a sneak attack on the Baron at night suprising his traditional six bodyguards &lt;InlineUIContainer&gt; &lt;Button Content='r220' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Each has combat skill 6 and endurance 6. Once you kill the bodyguards, you can attack the Baron who has combat skill 6 and endurance 8. The Baron strikes first in combat. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                           &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/BodyGuard.gif' Height='350' Width='350'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
 </sst>
 </file>
@@ -3638,10 +3648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B228"/>
+  <dimension ref="A1:B229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3922,1561 +3932,1569 @@
         <v>429</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>431</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>435</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="47" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="55" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="56" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="57" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="59" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="60" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="61" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="62" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="63" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="64" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="65" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+    <row r="66" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="67" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    <row r="68" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    <row r="69" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    <row r="70" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="71" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="72" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    <row r="73" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="74" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="75" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+    <row r="76" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+    <row r="77" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="78" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>356</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+    <row r="81" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+    <row r="82" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+    <row r="86" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+    <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+    <row r="91" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+    <row r="92" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+    <row r="93" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+    <row r="94" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+    <row r="95" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+    <row r="96" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+    <row r="97" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+    <row r="98" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>449</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+    <row r="103" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+    <row r="104" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>455</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+    <row r="107" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+    <row r="110" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+    <row r="111" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+    <row r="114" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+    <row r="115" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+    <row r="116" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+    <row r="117" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+    <row r="118" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+    <row r="122" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+    <row r="123" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+    <row r="124" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+    <row r="125" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+    <row r="126" spans="1:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+    <row r="127" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+    <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+    <row r="129" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+    <row r="130" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+    <row r="131" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+    <row r="132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
+    <row r="133" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+    <row r="134" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B184" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
+    <row r="185" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B185" s="1" t="s">
         <v>385</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B197" s="1" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B201" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
+    <row r="202" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B202" s="1" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B204" s="1" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B206" s="1" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B209" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
+    <row r="210" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B210" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
+    <row r="211" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B211" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
+    <row r="212" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B212" s="1" t="s">
         <v>394</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B214" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
+    <row r="215" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B215" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
+    <row r="216" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B216" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
+    <row r="217" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B217" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
+    <row r="218" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
+    <row r="219" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
+    <row r="220" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
+    <row r="221" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
+    <row r="222" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B222" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
+    <row r="223" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B223" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
+    <row r="224" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B224" s="1" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B226" s="1" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B228" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A228" s="2" t="s">
+    <row r="229" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B229" s="1" t="s">
         <v>200</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:B228">
-    <sortCondition ref="A53:A228"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A54:B229">
+    <sortCondition ref="A54:A229"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Rules.xlsx
+++ b/Documentation/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CED3FFA0-29E3-4DD4-A15F-257FB9D95E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE3CB50F-19A8-477C-AF49-97DBA7DA26C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -199,21 +199,6 @@
   </si>
   <si>
     <t>r219</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r204 Travel&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You can travel to new hexes as a daily action
- &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR203' Content='r203' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-. You travel by moving your the party across the map, hex by hex. You cannot skip or jump any hex unless a special event allows it.
-&lt;LineBreak/&gt;
-&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204a' Content='r204a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Travel Speeds
-&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR205' Content='r205' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Getting Lost
-&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204b' Content='r204b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Travel Events
-&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204c' Content='r204c' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Roads
-&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204d' Content='r204d' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Airborne Travel
-&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204e' Content='r204e' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; River Crossings
-&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204f' Content='r204f' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Travel Events and Time
-&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR206' Content='r206' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Transport</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r205a Local Guide&lt;/Bold&gt;
@@ -3282,6 +3267,21 @@
 You can make a sneak attack on the Baron at night suprising his traditional six bodyguards &lt;InlineUIContainer&gt; &lt;Button Content='r220' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Each has combat skill 6 and endurance 6. Once you kill the bodyguards, you can attack the Baron who has combat skill 6 and endurance 8. The Baron strikes first in combat. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
                            &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/BodyGuard.gif' Height='350' Width='350'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r204 Travel&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You can travel to new hexes as a daily action
+ &lt;InlineUIContainer&gt;&lt;Button Content='r203' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+. You travel by moving your party across the map, hex by hex. You cannot skip or jump any hex unless a special event allows it.
+&lt;LineBreak/&gt;
+&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204a' Content='r204a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Travel Speeds
+&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR205' Content='r205' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Getting Lost
+&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204b' Content='r204b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Travel Events
+&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204c' Content='r204c' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Roads
+&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204d' Content='r204d' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Airborne Travel
+&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204e' Content='r204e' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; River Crossings
+&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204f' Content='r204f' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Travel Events and Time
+&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR206' Content='r206' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Transport</t>
   </si>
 </sst>
 </file>
@@ -3650,8 +3650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3662,426 +3662,426 @@
   <sheetData>
     <row r="1" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -4089,7 +4089,7 @@
         <v>19</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -4097,7 +4097,7 @@
         <v>17</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -4105,7 +4105,7 @@
         <v>18</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -4113,15 +4113,15 @@
         <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -4129,55 +4129,55 @@
         <v>16</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>54</v>
+        <v>457</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -4185,7 +4185,7 @@
         <v>21</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -4193,7 +4193,7 @@
         <v>22</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4201,7 +4201,7 @@
         <v>23</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4209,7 +4209,7 @@
         <v>24</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4217,7 +4217,7 @@
         <v>25</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4225,7 +4225,7 @@
         <v>26</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -4233,7 +4233,7 @@
         <v>27</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
@@ -4241,7 +4241,7 @@
         <v>28</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="330" x14ac:dyDescent="0.25">
@@ -4249,7 +4249,7 @@
         <v>29</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4257,7 +4257,7 @@
         <v>30</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -4265,7 +4265,7 @@
         <v>31</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="330" x14ac:dyDescent="0.25">
@@ -4273,7 +4273,7 @@
         <v>32</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -4281,7 +4281,7 @@
         <v>33</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="360" x14ac:dyDescent="0.25">
@@ -4289,7 +4289,7 @@
         <v>34</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="360" x14ac:dyDescent="0.25">
@@ -4297,7 +4297,7 @@
         <v>35</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -4305,7 +4305,7 @@
         <v>36</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -4313,7 +4313,7 @@
         <v>37</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4329,7 +4329,7 @@
         <v>39</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -4337,7 +4337,7 @@
         <v>40</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4345,7 +4345,7 @@
         <v>41</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4361,7 +4361,7 @@
         <v>43</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -4369,7 +4369,7 @@
         <v>44</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4377,7 +4377,7 @@
         <v>45</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -4385,7 +4385,7 @@
         <v>46</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4393,7 +4393,7 @@
         <v>47</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4401,15 +4401,15 @@
         <v>50</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -4417,7 +4417,7 @@
         <v>51</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -4425,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="300" x14ac:dyDescent="0.25">
@@ -4433,7 +4433,7 @@
         <v>5</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -4441,7 +4441,7 @@
         <v>6</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4449,7 +4449,7 @@
         <v>7</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4457,7 +4457,7 @@
         <v>8</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4465,7 +4465,7 @@
         <v>9</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4473,7 +4473,7 @@
         <v>10</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -4489,7 +4489,7 @@
         <v>12</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4497,7 +4497,7 @@
         <v>13</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4505,7 +4505,7 @@
         <v>14</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -4513,7 +4513,7 @@
         <v>15</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4521,15 +4521,15 @@
         <v>52</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4537,7 +4537,7 @@
         <v>3</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -4545,7 +4545,7 @@
         <v>4</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -4553,103 +4553,103 @@
         <v>53</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -4657,839 +4657,839 @@
         <v>2</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Rules.xlsx
+++ b/Documentation/Rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\BarbarianPrince\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\source\repos\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE3CB50F-19A8-477C-AF49-97DBA7DA26C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3912FA1-B953-405D-B556-0830F599153B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="82680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -404,12 +404,6 @@
     <t>r227a</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r227a Plague Dust&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die and halve the results rounding upward.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You suffer these many wounds at the end of the day. You will continue to suffer the same number after every day.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;To determine recovery, roll one die after the sickness wounds are inflicted. If this second roll is 4+, you recover. Otherwsie sickness continues.</t>
-  </si>
-  <si>
     <t>r228</t>
   </si>
   <si>
@@ -3282,6 +3276,12 @@
 &lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204e' Content='r204e' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; River Crossings
 &lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204f' Content='r204f' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Travel Events and Time
 &lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR206' Content='r206' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Transport</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r227a Plague Dust&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die and halve the results rounding upward.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You suffer these many wounds at the end of the day. You will continue to suffer the same number after every day.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;To determine recovery, roll one die after the sickness wounds are inflicted. If this second roll is 4+, you recover. Otherwise sickness continues.</t>
   </si>
 </sst>
 </file>
@@ -3650,545 +3650,545 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="231.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" style="2"/>
+    <col min="2" max="2" width="231.578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="187.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="157.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="345.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="360" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="375" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="B47" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="360" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B61" s="1" t="s">
+    <row r="65" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2" t="s">
         <v>22</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2" t="s">
         <v>23</v>
       </c>
@@ -4204,15 +4204,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2" t="s">
         <v>25</v>
       </c>
@@ -4220,23 +4220,23 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="2" t="s">
         <v>28</v>
       </c>
@@ -4244,63 +4244,63 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="316.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="316.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="345.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="345.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="2" t="s">
         <v>36</v>
       </c>
@@ -4308,15 +4308,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="2" t="s">
         <v>38</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2" t="s">
         <v>39</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2" t="s">
         <v>40</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="2" t="s">
         <v>41</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="2" t="s">
         <v>42</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="2" t="s">
         <v>43</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="2" t="s">
         <v>44</v>
       </c>
@@ -4372,71 +4372,71 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="288" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="2" t="s">
         <v>6</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="2" t="s">
         <v>7</v>
       </c>
@@ -4452,23 +4452,23 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="2" t="s">
         <v>10</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="2" t="s">
         <v>11</v>
       </c>
@@ -4484,31 +4484,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="2" t="s">
         <v>15</v>
       </c>
@@ -4516,79 +4516,79 @@
         <v>62</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="2" t="s">
         <v>73</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="2" t="s">
         <v>74</v>
       </c>
@@ -4604,31 +4604,31 @@
         <v>77</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="2" t="s">
         <v>79</v>
       </c>
@@ -4636,15 +4636,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="2" t="s">
         <v>81</v>
       </c>
@@ -4652,844 +4652,844 @@
         <v>83</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+      <c r="B131" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B132" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B132" s="1" t="s">
+    <row r="134" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B133" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
+    <row r="187" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B187" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
+    <row r="188" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B188" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
+    <row r="189" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B189" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
+    <row r="190" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B190" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
+    <row r="191" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B191" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B191" s="1" t="s">
+    <row r="193" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B193" s="1" t="s">
+    <row r="197" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B195" s="1" t="s">
+    <row r="198" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A202" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A205" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A206" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B201" s="1" t="s">
+    <row r="207" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A207" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A208" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A209" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B204" s="1" t="s">
+    <row r="210" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A210" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B208" s="1" t="s">
+    <row r="211" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A211" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A212" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A213" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A214" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A215" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
+      <c r="A216" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="A217" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A218" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A219" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A220" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A221" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A222" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="230.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A223" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B215" s="1" t="s">
+    <row r="224" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A224" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A225" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
+    <row r="226" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A226" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B225" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
+      <c r="B226" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="374.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A227" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B226" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
+      <c r="B227" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="374.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A228" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B227" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A228" s="2" t="s">
+      <c r="B228" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A229" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B228" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="B229" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Rules.xlsx
+++ b/Documentation/Rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\source\repos\BarbarianPrince\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3912FA1-B953-405D-B556-0830F599153B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CECA023-67A1-4205-A2D4-A133DBD5C8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="82680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -3202,7 +3202,72 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Hunting is prohibited in any hex with a town, castle, or temple.</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r200 How to Play&lt;/Bold&gt;
+    <t>r049</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r049 Travelling Minstrel&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You have a musician that has joined your party.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If he is fed, he will sing a tale that night that prevents any of your party from deserting no matter what happened today.  This applies even if your followers are not properly fed or lodged.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;When at the evening meal, click his image to start him singing to prevent desertions. However, when he sings, he leaves the next day.
+&lt;LineBreak/&gt; &lt;LineBreak/&gt; 
+                               &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Minstrel.gif' Height='280' Width='140'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>r146a</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;e146a Stealing Count Drogat Jewels&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Using the foulbane in Drogat Castle, you can spend a &lt;Bold&gt;Steal Gems&lt;/Bold&gt; action instead of a normal daily action in arranging for a special theft of the Count's personnel jewels.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;At the end of the day, you escape from the hex
+ &lt;InlineUIContainer&gt;&lt;Button Content='r218' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ with wealth 110. However, you can never return to the castle hex due to the Count's anger. In the process of the theft, you might acquire magic items as part of the wealth 110 check. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                      &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/CountDrogatJewels.gif' Name='CountDrogatJewels' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r216 Starvation&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you cannot provide food each day for characters or mounts, startvation will begin to affect their loyalty and performance. Each food unit is sufficient to feed one person for one day. Mounts require two units per day if they are unable to forage for their own fodder. In a desert hext with no oasis, the food requirement doubles for men and mounts to represent the need to also carry water supplies.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+  &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR216a' Content='r216a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ Follower Starvation&lt;LineBreak/&gt;
+  &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR216b' Content='r216b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ Character Starvation&lt;LineBreak/&gt;
+  &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR216c' Content='r216c' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ Mount Starvation</t>
+  </si>
+  <si>
+    <t>r144i</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r144i Baron Hauldra Sneak Attack&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+You can make a sneak attack on the Baron at night suprising his traditional six bodyguards &lt;InlineUIContainer&gt; &lt;Button Content='r220' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Each has combat skill 6 and endurance 6. Once you kill the bodyguards, you can attack the Baron who has combat skill 6 and endurance 8. The Baron strikes first in combat. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                           &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/BodyGuard.gif' Height='350' Width='350'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r204 Travel&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You can travel to new hexes as a daily action
+ &lt;InlineUIContainer&gt;&lt;Button Content='r203' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+. You travel by moving your party across the map, hex by hex. You cannot skip or jump any hex unless a special event allows it.
+&lt;LineBreak/&gt;
+&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204a' Content='r204a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Travel Speeds
+&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR205' Content='r205' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Getting Lost
+&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204b' Content='r204b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Travel Events
+&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204c' Content='r204c' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Roads
+&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204d' Content='r204d' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Airborne Travel
+&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204e' Content='r204e' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; River Crossings
+&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204f' Content='r204f' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Travel Events and Time
+&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR206' Content='r206' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Transport</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r227a Plague Dust&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die and halve the results rounding upward.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You suffer these many wounds at the end of the day. You will continue to suffer the same number after every day.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;To determine recovery, roll one die after the sickness wounds are inflicted. If this second roll is 4+, you recover. Otherwise sickness continues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r200 How to Play&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;Italic&gt;Barbarian Prince&lt;/Italic&gt; is a dungeon cawler, self-paced, solo game. You play the game in days. Each day starts with your selecting a daily action
  &lt;InlineUIContainer&gt;&lt;Button Content='r203' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
 , such as traveling to a new hex on the map. Depending on the action selected, you will be referred to a chart, where you roll one or two die. The dice roll and the chart may then indicate a special event section, when you then resolve.
@@ -3216,72 +3281,7 @@
 . You may also have additional characters
  &lt;InlineUIContainer&gt;&lt;Button Content='r201' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
  join your party. These additinal characters are especially useful in fights, although some may have special knowleddge or abiliities useful in certain events. Magicians, wizards, witches, priests, and monks are especially useful people to have in your party. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;All events are self explanatory, and refer to the main rules dialogs that describes how they are resolved.</t>
-  </si>
-  <si>
-    <t>r049</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r049 Travelling Minstrel&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You have a musician that has joined your party.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If he is fed, he will sing a tale that night that prevents any of your party from deserting no matter what happened today.  This applies even if your followers are not properly fed or lodged.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;When at the evening meal, click his image to start him singing to prevent desertions. However, when he sings, he leaves the next day.
-&lt;LineBreak/&gt; &lt;LineBreak/&gt; 
-                               &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Minstrel.gif' Height='280' Width='140'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
-    <t>r146a</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;e146a Stealing Count Drogat Jewels&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Using the foulbane in Drogat Castle, you can spend a &lt;Bold&gt;Steal Gems&lt;/Bold&gt; action instead of a normal daily action in arranging for a special theft of the Count's personnel jewels.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;At the end of the day, you escape from the hex
- &lt;InlineUIContainer&gt;&lt;Button Content='r218' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- with wealth 110. However, you can never return to the castle hex due to the Count's anger. In the process of the theft, you might acquire magic items as part of the wealth 110 check. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                      &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/CountDrogatJewels.gif' Name='CountDrogatJewels' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r216 Starvation&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you cannot provide food each day for characters or mounts, startvation will begin to affect their loyalty and performance. Each food unit is sufficient to feed one person for one day. Mounts require two units per day if they are unable to forage for their own fodder. In a desert hext with no oasis, the food requirement doubles for men and mounts to represent the need to also carry water supplies.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-  &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR216a' Content='r216a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- Follower Starvation&lt;LineBreak/&gt;
-  &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR216b' Content='r216b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- Character Starvation&lt;LineBreak/&gt;
-  &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR216c' Content='r216c' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- Mount Starvation</t>
-  </si>
-  <si>
-    <t>r144i</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r144i Baron Hauldra Sneak Attack&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-You can make a sneak attack on the Baron at night suprising his traditional six bodyguards &lt;InlineUIContainer&gt; &lt;Button Content='r220' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Each has combat skill 6 and endurance 6. Once you kill the bodyguards, you can attack the Baron who has combat skill 6 and endurance 8. The Baron strikes first in combat. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                           &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/BodyGuard.gif' Height='350' Width='350'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r204 Travel&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You can travel to new hexes as a daily action
- &lt;InlineUIContainer&gt;&lt;Button Content='r203' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-. You travel by moving your party across the map, hex by hex. You cannot skip or jump any hex unless a special event allows it.
-&lt;LineBreak/&gt;
-&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204a' Content='r204a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Travel Speeds
-&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR205' Content='r205' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Getting Lost
-&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204b' Content='r204b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Travel Events
-&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204c' Content='r204c' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Roads
-&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204d' Content='r204d' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Airborne Travel
-&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204e' Content='r204e' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; River Crossings
-&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204f' Content='r204f' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Travel Events and Time
-&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR206' Content='r206' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Transport</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r227a Plague Dust&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die and halve the results rounding upward.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You suffer these many wounds at the end of the day. You will continue to suffer the same number after every day.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;To determine recovery, roll one die after the sickness wounds are inflicted. If this second roll is 4+, you recover. Otherwise sickness continues.</t>
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;All events are self explanatory. Click the rules button that brings up dialogs on details. </t>
   </si>
 </sst>
 </file>
@@ -3650,17 +3650,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="2"/>
-    <col min="2" max="2" width="231.578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="231.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>342</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>348</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>364</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="187.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>369</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>325</v>
       </c>
@@ -3700,15 +3700,15 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>373</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>385</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>355</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>356</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="157.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>359</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>358</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>361</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>374</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>375</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>362</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>363</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>365</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>387</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>386</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>388</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>379</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>380</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>381</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>382</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>360</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>377</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>368</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>367</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>371</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="345.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>372</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="360" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>370</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>389</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>390</v>
       </c>
@@ -3932,15 +3932,15 @@
         <v>427</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="36" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>397</v>
       </c>
@@ -3948,15 +3948,15 @@
         <v>428</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="38" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>334</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>335</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>332</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>336</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>337</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>338</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>326</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>339</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>340</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>343</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>323</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>341</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>327</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>328</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>329</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>330</v>
       </c>
@@ -4084,15 +4084,15 @@
         <v>443</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>17</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>18</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="360" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>0</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>346</v>
       </c>
@@ -4124,15 +4124,15 @@
         <v>444</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="187.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>201</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>202</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>203</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>205</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>206</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>207</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="187.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>21</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>22</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>23</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>24</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>25</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>26</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>27</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>28</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="316.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:2" ht="330" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>29</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>30</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="244.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>31</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="316.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:2" ht="330" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>32</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>33</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="345.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="345.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>35</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="244.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>36</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>37</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>38</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>39</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>40</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>41</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>42</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>43</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>44</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>45</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>46</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>47</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>50</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>391</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>51</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>1</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="288" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>5</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>6</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>7</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>8</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>9</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>10</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>11</v>
       </c>
@@ -4484,15 +4484,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>13</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>14</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>15</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>52</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>60</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>3</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>4</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>53</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>69</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>70</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>71</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>72</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>73</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>74</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>75</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>76</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>78</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>79</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>80</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>81</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>2</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>84</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>85</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>86</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>88</v>
       </c>
@@ -4692,15 +4692,15 @@
         <v>184</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>90</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>91</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>92</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>213</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>215</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>216</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>217</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>218</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>219</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>220</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>221</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>222</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>223</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>224</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>225</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>226</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>227</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>228</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>229</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>230</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>231</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>232</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>233</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>234</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>235</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>236</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>237</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>238</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>239</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>240</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>241</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>242</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>243</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>244</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>245</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>246</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>247</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>248</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>249</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>250</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>251</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>252</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>253</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>254</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>255</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>256</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>257</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>258</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>259</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>260</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>261</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>262</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>263</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>264</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>193</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>94</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>95</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>96</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>97</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>98</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>99</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>100</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>101</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>102</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>103</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>104</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>105</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>106</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>107</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>108</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>109</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>110</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>111</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>112</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>113</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>114</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>115</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>116</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>117</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>118</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>119</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>121</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>122</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>123</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>124</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>125</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>126</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>129</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>130</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>132</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>134</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>136</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="230.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>138</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>139</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>141</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>142</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="374.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>143</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="374.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>144</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>145</v>
       </c>

--- a/Documentation/Rules.xlsx
+++ b/Documentation/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CECA023-67A1-4205-A2D4-A133DBD5C8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{99A9786C-5DAB-4C9D-A4A9-F6CBAE792ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -2709,12 +2709,72 @@
  However, this does not eliminate the risk of desertion described above with character starvation.</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r182 Gift of Charm&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;This is a small item of no real value, but it does have a magic aura. You can give this gift to any characters you encounter as part of any talk or negiotiaton.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;When you use it, you can then roll a second and a third time of that option. You select the die result you want.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Once given away, the gift is gone and useless unless the receiver later fights you in combat and you kill the defenders. Then, you can recover the gift as part of the defender's possessions. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                   &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/CharmGift.gif' Name='Possession' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    <t>&lt;Bold&gt;r215c Populated Regions and Hunting&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you must hunt in a farmland hex, each time you roll one die for a possible event, which occurs after the hunt is finished, but before the evening meal is eaten: 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt; 1,2,3,4-Do nothing.
+&lt;LineBreak/&gt; 5-Peasant mob in pursuit
+ &lt;InlineUIContainer&gt;&lt;Button Content='e017' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt; 6-Pursued by constabulary
+ &lt;InlineUIContainer&gt;&lt;Button Content='e050' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Hunting is prohibited in any hex with a town, castle, or temple.</t>
+  </si>
+  <si>
+    <t>r049</t>
+  </si>
+  <si>
+    <t>r146a</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r216 Starvation&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you cannot provide food each day for characters or mounts, startvation will begin to affect their loyalty and performance. Each food unit is sufficient to feed one person for one day. Mounts require two units per day if they are unable to forage for their own fodder. In a desert hext with no oasis, the food requirement doubles for men and mounts to represent the need to also carry water supplies.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+  &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR216a' Content='r216a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ Follower Starvation&lt;LineBreak/&gt;
+  &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR216b' Content='r216b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ Character Starvation&lt;LineBreak/&gt;
+  &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR216c' Content='r216c' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ Mount Starvation</t>
+  </si>
+  <si>
+    <t>r144i</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r204 Travel&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You can travel to new hexes as a daily action
+ &lt;InlineUIContainer&gt;&lt;Button Content='r203' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+. You travel by moving your party across the map, hex by hex. You cannot skip or jump any hex unless a special event allows it.
+&lt;LineBreak/&gt;
+&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204a' Content='r204a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Travel Speeds
+&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR205' Content='r205' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Getting Lost
+&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204b' Content='r204b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Travel Events
+&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204c' Content='r204c' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Roads
+&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204d' Content='r204d' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Airborne Travel
+&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204e' Content='r204e' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; River Crossings
+&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204f' Content='r204f' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Travel Events and Time
+&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR206' Content='r206' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Transport</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r227a Plague Dust&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die and halve the results rounding upward.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You suffer these many wounds at the end of the day. You will continue to suffer the same number after every day.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;To determine recovery, roll one die after the sickness wounds are inflicted. If this second roll is 4+, you recover. Otherwise sickness continues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r200 How to Play&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;Italic&gt;Barbarian Prince&lt;/Italic&gt; is a dungeon cawler, self-paced, solo game. You play the game in days. Each day starts with your selecting a daily action
+ &lt;InlineUIContainer&gt;&lt;Button Content='r203' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+, such as traveling to a new hex on the map. Depending on the action selected, you will be referred to a chart, where you roll one or two die. The dice roll and the chart may then indicate a special event section, when you then resolve.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;After all events are resolved for your daily action, you must eat your main evening meal as described in the food rules
+ &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+, and if in a town, castle, or temple hex; you must also purchase lodging
+ &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR217' Content='r217' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;This ends the day, and you continue play with the start of the next day, where you select another action. The game continues until either you are killed or 70 days (10 weeks) elapse. If you have not won before the 70 days ends, the game is automatically lost!
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Many events may lead to fighting, described in the combat rules
+ &lt;InlineUIContainer&gt;&lt;Button Content='r220' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+. You may also have additional characters
+ &lt;InlineUIContainer&gt;&lt;Button Content='r201' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ join your party. These additinal characters are especially useful in fights, although some may have special knowleddge or abiliities useful in certain events. Magicians, wizards, witches, priests, and monks are especially useful people to have in your party. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;All events are self explanatory. Click the rules button that brings up dialogs on details. </t>
   </si>
   <si>
     <t>&lt;Bold&gt;r013a Rich Peasant Family&lt;/Bold&gt;
@@ -2722,7 +2782,7 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Family may sell horses. Roll one die, and a result of 4 plus means they do. If they have stables, roll again for the number of horses available for sale. Roll one die again and double it for the price per horse. They will sell horses at this rate and will also sell food at 2 food units per gold piece. An unlimited amount of food is available for sale.
 &lt;LineBreak/&gt;
 &lt;LineBreak/&gt;
-                        &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Lodging.gif'  Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                        &lt;InlineUIContainer&gt;&lt;Image Source='../images/Lodging.gif'  Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r018 Priest&lt;/Bold&gt;
@@ -2737,7 +2797,15 @@
  &lt;InlineUIContainer&gt;&lt;Button Content='r211' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
  with the high priest of any temple marked on the map, but may with high priest of any secret unmarked temples that you find.
 &lt;LineBreak/&gt;
-                              &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Priest.gif'  Height='150' Width='150'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                              &lt;InlineUIContainer&gt;&lt;Image Source='../images/Priest.gif'  Height='150' Width='150'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r049 Travelling Minstrel&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You have a musician that has joined your party.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If he is fed, he will sing a tale that night that prevents any of your party from deserting no matter what happened today.  This applies even if your followers are not properly fed or lodged.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;When at the evening meal, click his image to start him singing to prevent desertions. However, when he sings, he leaves the next day.
+&lt;LineBreak/&gt; &lt;LineBreak/&gt; 
+                               &lt;InlineUIContainer&gt;&lt;Image Source='../images/Minstrel.gif' Height='280' Width='140'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r051 Bandits&lt;/Bold&gt;
@@ -2746,14 +2814,14 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;The number of bandits exceeds the number of characters in your party by two.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;One of the bandits is the leader with combat skill 6, endurance 6, and wealth 15. The rest have combat skill 5, endurance 4, and wealth 1.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                 &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Bandit.gif' Height='300' Width='180'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                                 &lt;InlineUIContainer&gt;&lt;Image Source='../images/Bandit.gif' Height='300' Width='180'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r057 Troll Skin&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;A hugh stone-skinned troll was killed by your party. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Since you killed the troll, its stone-skin is a valuble item. Whenever you have an opportunity to buy food at a town, castle, temple, or from merchants; you can sell the skin for 50 gold pieces. It is also known that Count Drogat of Drogat Castle will treasure the gift should you manage to get a personal audience with him.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/TrollSkin.gif' Height='300' Width='166'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                &lt;InlineUIContainer&gt;&lt;Image Source='../images/TrollSkin.gif' Height='300' Width='166'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r073a Hostile Witch&lt;/Bold&gt;
@@ -2763,7 +2831,7 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;If a six occurs, the character is turned into a frog and is lost. If you are turned into a frog; any frog, lover, magician, or friendly witch surviving in your party can turn you back.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Otherwise, you remain a frog for years and lose the game. 
 &lt;LineBreak/&gt; &lt;LineBreak/&gt;
-                           &lt;InlineUIContainer&gt;&lt;Image Name='Witch' Source='../bin/Images/Witch.gif' Height='300' Width='240'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                           &lt;InlineUIContainer&gt;&lt;Image Name='Witch' Source='../images/Witch.gif' Height='300' Width='240'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r085 Narrow Ledges&lt;/Bold&gt;
@@ -2772,7 +2840,7 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;If you personally slip or your mount falls over the edge, you are presumed to catch a ledge somewhere down the cliff and survive. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die and add one for the number of wounds suffered in the fall. Also, roll one die to see if your party finds you. A 5 or higher indicates they do. Any lower roll means the rest of your party does not find you and disappears with all the mounts, possessions, and wealth they are carrying.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                              &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/NarrowLedge.gif' Height='125'  Width='250'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                              &lt;InlineUIContainer&gt;&lt;Image Source='../images/NarrowLedge.gif' Height='125'  Width='250'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r088 Rockfall&lt;/Bold&gt;
@@ -2782,7 +2850,7 @@
  &lt;LineBreak/&gt;5 - Character suffers one wound from flying rock chips. Mounts without a rider are caught by a rolling bolder, breaks a leg, and must be killed.
  &lt;LineBreak/&gt;6 - Character hit by heavy rock. Roll one die and add one for wounds suffered. Mounts without rider are hit and killed instantly. All of its load are buried beneath the rocks and are lost.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-          &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/LandSlide.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+          &lt;InlineUIContainer&gt;&lt;Image Source='../images/LandSlide.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r090 Quicksand&lt;/Bold&gt;
@@ -2793,7 +2861,7 @@
 5 - Character struggles outward using vines and tree routes, but a mount is lost with everything it carries.&lt;LineBreak/&gt;
 6 - Character or mount is trapped in deepest part. They cannot win freedom and are automatically lost with everything carried.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                   &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Quicksand.gif' Height='150'  Width='150'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                                   &lt;InlineUIContainer&gt;&lt;Image Source='../images/Quicksand.gif' Height='150'  Width='150'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r091 Poison Snake&lt;/Bold&gt;
@@ -2802,13 +2870,13 @@
  &lt;InlineUIContainer&gt;&lt;Button Content='r343' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
  suffers snakebit poison wounds. Roll one die for the number of poison wounds received.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-              &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Snake.gif' Height='280'  Width='400'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+              &lt;InlineUIContainer&gt;&lt;Image Source='../images/Snake.gif' Height='280'  Width='400'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;e094a Crocodiles in River&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Your party is attacked by very large and very hungry crocodiles. They achieve surprise in combat  &lt;InlineUIContainer&gt;&lt;Button Content='r310' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. They have combat skill 4 and endurance of 6. Roll one die for the number fo crocs.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                 &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Crocs.gif' Height='200' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                 &lt;InlineUIContainer&gt;&lt;Image Source='../images/Crocs.gif' Height='200' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r095 Mounts at Risk&lt;/Bold&gt;
@@ -2818,7 +2886,7 @@
 &lt;LineBreak/&gt; 5: Mount failing. Unless you rest &lt;InlineUIContainer&gt;&lt;Button Content='r203' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; , it  dies tomorrow.
 &lt;LineBreak/&gt; 6: Mount in serious condition. It dies immediately.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                 &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/MountTired.gif' Height='200' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                 &lt;InlineUIContainer&gt;&lt;Image Source='../images/MountTired.gif' Height='200' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r096 Mounts Sick&lt;/Bold&gt;
@@ -2829,20 +2897,20 @@
  3: Mount still failing. Roll again at end of tomorrow.&lt;LineBreak/&gt;
  4,5,6: Mount dies now
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                 &lt;InlineUIContainer&gt;&lt;Image Name='MountsDie' Source='../bin/Images/MountsDie.gif' Height='200' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                 &lt;InlineUIContainer&gt;&lt;Image Name='MountsDie' Source='../images/MountsDie.gif' Height='200' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r097 Marsh Gas and Rot&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Your entire party has unwittingly travelled into an area full of flesh-rot disease and mind-destroying marsh gas. Roll one die for each character. If a one results, the character escapes. Any other result means the character dies a mindless and raving idiot while his flesh rots from his bones before his eyes.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-         &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/FleshRot.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+         &lt;InlineUIContainer&gt;&lt;Image Source='../images/FleshRot.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r098 Dragon Eye&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;You encountered a huge, winged fire-breathing dragon.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Since you killed the dragon, you cut out its eyes. The dragon eyes are valued by High Priest and increases the chance of securing an audience with them.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-    &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/DragonEye.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    &lt;InlineUIContainer&gt;&lt;Image Source='../images/DragonEye.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r099 Roc Beak&lt;/Bold&gt;
@@ -2853,14 +2921,14 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 In addition, the beak can be sold to any merchant, or in any town/castle/temple whenever you buy food. The beak is worth 35gp.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-         &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/RocBeak.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+         &lt;InlineUIContainer&gt;&lt;Image Source='../images/RocBeak.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r100 Griffon Claws&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;You killed a winged griffon.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;You cut off its claws and carried them as an extra possession. They are especially valued by Lady Aeravir of Aeravir Castle, and it may help you gain audience with her.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-     &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/GriffonClaw.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+     &lt;InlineUIContainer&gt;&lt;Image Source='../images/GriffonClaw.gif' Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r106 Heavy Overcast&lt;/Bold&gt;
@@ -2868,14 +2936,20 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die for each character or unridden mount. A six means that the character or mount disppears into the overcast and is lost from your party.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Finally, the overcast will force you and the remainder of your party to land in the new hex. No futher travel is possible today. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-               &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Overcast.gif' Height='220' Width='480'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+               &lt;InlineUIContainer&gt;&lt;Image Source='../images/Overcast.gif' Height='220' Width='480'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r107 Falcon Scout&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;At the evening meal each day, if you offer the falcon a food unit, roll the die. If you roll anyhing other than a six, the falcon will remain throughout tomorrow with your party as a guide. You cannot get lost when you have the falcon.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                        &lt;InlineUIContainer&gt;&lt;Image Source='../images/Falcon.gif' Height='188' Width='250'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r109 Wild Pegasus&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;You encounter a wild Pegasus. Each character in your party is allowed one attempt to capture it.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die. If the result is 5 plus, the character captures the Pegasus. You may add it as a winged mount to your party.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                 &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Pegasus.gif' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                                 &lt;InlineUIContainer&gt;&lt;Image Source='../images/Pegasus.gif' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r111 Storm Demon Attacks&lt;/Bold&gt;
@@ -2883,7 +2957,7 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;You are unable to block the attack, and your entire party is blown away to be lost or killed. Your winged mount is killed, but your carried wealth and possessions are intact. The rest of your party is lost.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;You crash in an adjacent hex. Roll one die for the number of wounds suffered.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                              &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/StormDemon.gif' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                              &lt;InlineUIContainer&gt;&lt;Image Source='../images/StormDemon.gif' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r121 Sunstroke&lt;/Bold&gt;
@@ -2893,19 +2967,19 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;If you suffer sunstroke and are not carried, your party leaves you behind and disappear. You suffer wounds equal to one die roll. You revive in time for the evening meal
  &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Click image to continue.
 &lt;LineBreak/&gt;
-                                    &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Sun5.gif' Height='250'  Width='250' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                                    &lt;InlineUIContainer&gt;&lt;Image Source='../images/Sun5.gif' Height='250'  Width='250' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r123a Knight at the Bridge Refusal&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;You refused the combat and end travel for the day. Roll one die for each character in your party. A six means they desert you for cowardice.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                         &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/BlackKnightRefuse.gif' Height='200'  Width='350' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                         &lt;InlineUIContainer&gt;&lt;Image Source='../images/BlackKnightRefuse.gif' Height='200'  Width='350' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r125 Raft Overturns&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;The raft is caught in an eddy, hits a rock, and overturns. Everyone in your party including mounts swims to shore. However, all wealth and all possessions are lost.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                   &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/RaftWhiteWater5.gif' Height='225'  Width='400' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                   &lt;InlineUIContainer&gt;&lt;Image Source='../images/RaftWhiteWater5.gif' Height='225'  Width='400' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r126 Raft Caught in Current&lt;/Bold&gt;
@@ -2913,14 +2987,14 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die for each mount and the characters in your party. A six indicates it is lost overboard and drowns. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;If you fall overboard, you can swim to shore, losing all your wealth, possessions, and mount. You party disppears downriver on the raft and is lost to you.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                   &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/RaftWhiteWater3.gif' Height='225'  Width='400' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                   &lt;InlineUIContainer&gt;&lt;Image Source='../images/RaftWhiteWater3.gif' Height='225'  Width='400' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r127 Raft in Rough Water&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Your raft hits white water. All food stores piled on it are lost overboard.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;All characters, mounts, wealth, and possession are saved. Raft continues its journey safely.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                             &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/RaftWhiteWater1.gif' Height='300'  Width='300' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                             &lt;InlineUIContainer&gt;&lt;Image Source='../images/RaftWhiteWater1.gif' Height='300'  Width='300' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r128 Merchant&lt;/Bold&gt;
@@ -2944,7 +3018,7 @@
   12 - Learn unique secrets from the merchant. See
  &lt;InlineUIContainer&gt;&lt;Button Content='e162' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.&lt;LineBreak/&gt;
 &lt;LineBreak/&gt;
-                                          &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Merchant.gif' Height='150'  Width='93'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                                          &lt;InlineUIContainer&gt;&lt;Image Source='../images/Merchant.gif' Height='150'  Width='93'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;Bold&gt;r129 Merchant Caravan&lt;/Bold&gt;
@@ -2971,7 +3045,7 @@
  &lt;InlineUIContainer&gt;&lt;Button Content='e147' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.&lt;LineBreak/&gt;
   12 - Caravan passed a nearby ruins yesterday. Roll one die for which hex: 1-N,2-NE,3-SE, 4-S,5-SW,6-NW.&lt;LineBreak/&gt;
 &lt;LineBreak/&gt;
-                           &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Caravan.gif' Height='150'  Width='300'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;	</t>
+                           &lt;InlineUIContainer&gt;&lt;Image Source='../images/Caravan.gif' Height='150'  Width='300'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;	</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;Bold&gt;r140 Magic Box Found&lt;/Bold&gt;
@@ -2985,7 +3059,7 @@
  5 - Random Possession&lt;LineBreak/&gt;
  6 - Nothing but rubbish
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                 &lt;InlineUIContainer&gt;&lt;Image  Source='../bin/Images/BoxUnopened.gif' Name='BoxUnopened' Height='200'  Width='200'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt; </t>
+                                 &lt;InlineUIContainer&gt;&lt;Image  Source='../images/BoxUnopened.gif' Name='BoxUnopened' Height='200'  Width='200'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">&lt;Bold&gt;r141 Hydra's Teeth&lt;/Bold&gt;
@@ -2996,7 +3070,14 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 You can scatter the teeth at any instant to use them that one time including at the start or during any combat.
 &lt;LineBreak/&gt;
-                              &lt;InlineUIContainer&gt;&lt;Image  Source='../bin/Images/Teeth.gif' Height='200'  Width='200'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt; </t>
+                              &lt;InlineUIContainer&gt;&lt;Image  Source='../images/Teeth.gif' Height='200'  Width='200'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt; </t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r144i Baron Hauldra Sneak Attack&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+You can make a sneak attack on the Baron at night suprising his traditional six bodyguards &lt;InlineUIContainer&gt; &lt;Button Content='r220' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Each has combat skill 6 and endurance 6. Once you kill the bodyguards, you can attack the Baron who has combat skill 6 and endurance 8. The Baron strikes first in combat. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                           &lt;InlineUIContainer&gt;&lt;Image Source='../images/BodyGuard.gif' Height='350' Width='350'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r146 The Secret of Count Dragot&lt;/Bold&gt;
@@ -3013,14 +3094,23 @@
  &lt;InlineUIContainer&gt;&lt;Button Content='r218' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
  with wealth 110. However, you can never return to the castle hex due to the Count's anger. In the process of the theft, you might acquire magic items as part of the wealth 110 check. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                     &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/FoulBane.gif' Name='EncounterEnd' Height='250' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                                     &lt;InlineUIContainer&gt;&lt;Image Source='../images/FoulBane.gif' Name='EncounterEnd' Height='250' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;e146a Stealing Count Drogat Jewels&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Using the foulbane in Drogat Castle, you can spend a &lt;Bold&gt;Steal Gems&lt;/Bold&gt; action instead of a normal daily action in arranging for a special theft of the Count's personnel jewels.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;At the end of the day, you escape from the hex
+ &lt;InlineUIContainer&gt;&lt;Button Content='r218' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ with wealth 110. However, you can never return to the castle hex due to the Count's anger. In the process of the theft, you might acquire magic items as part of the wealth 110 check. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                      &lt;InlineUIContainer&gt;&lt;Image Source='../images/CountDrogatJewels.gif' Name='CountDrogatJewels' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r180 Healing Potion&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;This potion can be applied once to any character including yourself at the end of the day after the evening meal
  &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
 . The potion immediately cures all wounds except poison wounds.&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-          &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/PotionHeal.gif' Name='Possession' Height='500' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+          &lt;InlineUIContainer&gt;&lt;Image Source='../images/PotionHeal.gif' Name='Possession' Height='500' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r181 Cure Poison Vial&lt;/Bold&gt;
@@ -3028,7 +3118,15 @@
  &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
 . It will cure all poisoned wounds overnight. Only poison wounds are cured. It has no effect on regular wounds. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-          &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/PotionCure.gif' Name='Possession' Height='500' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+          &lt;InlineUIContainer&gt;&lt;Image Source='../images/PotionCure.gif' Name='Possession' Height='500' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r182 Gift of Charm&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;This is a small item of no real value, but it does have a magic aura. You can give this gift to any characters you encounter as part of any talk or negiotiaton.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;When you use it, you can then roll a second and a third time of that option. You select the die result you want.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Once given away, the gift is gone and useless unless the receiver later fights you in combat and you kill the defenders. Then, you can recover the gift as part of the defender's possessions. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                   &lt;InlineUIContainer&gt;&lt;Image Source='../images/CharmGift.gif' Name='Possession' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r183 Endurance Sash&lt;/Bold&gt;
@@ -3036,14 +3134,14 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;The effect is permanet as long as you retain your possessions. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;You cannot wear more than one sash. Additional ones may be given to other characters in your party. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-        &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Sash.gif' Name='Possession' Height='30' Width='550'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+        &lt;InlineUIContainer&gt;&lt;Image Source='../images/Sash.gif' Name='Possession' Height='30' Width='550'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r184 Resistance Talisman&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;The gold talisman allows you to resist all magic spells and attacks. Whenever magic is used, you can call upon the talisman to negate it.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;However, the talisman may be unable to contain a strong spell. Each time it is used, roll one die. A result of 6 means the spell is stopped and the talisman is shuttered and broken in the process.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                   &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/TalismanResistance.gif' Name='Possession' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                   &lt;InlineUIContainer&gt;&lt;Image Source='../images/TalismanResistance.gif' Name='Possession' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r185 Poison Drug&lt;/Bold&gt;
@@ -3053,21 +3151,21 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;After a combat where the poisoned weapon is used, roll one die. A result of 6 means the poison has worn off and the weapon returns to normal.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Since a character often has multiple weapons, he has the option of using his poisoned weapon or a normal weapon as desired. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                   &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/PoisonDrug.gif' Name='Possession' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                   &lt;InlineUIContainer&gt;&lt;Image Source='../images/PoisonDrug.gif' Name='Possession' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r186 Magic Sword&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;A character can carry this special sword amoung his weapons. The magic sword adds one to the combat skill of the character with it.
 In addition, the blade's magic means that every wound it inflicts counts as a poisoned wound. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                   &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Sword.gif' Name='Possession' Height='170' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                   &lt;InlineUIContainer&gt;&lt;Image Source='../images/Sword.gif' Name='Possession' Height='170' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r187 Anti-poison Amulet&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;This protects against all poisoned wounds. Any poison wound inflicted is ignored if the target has the amulet. Normal wounds still take effect. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Each time a poison wound is prevented, roll two die. If the result is 12, the amulet has reached its limit. It cannot absorb more poison and must be discarded. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-         &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/AmuletAntiPoison.gif' Name='Possession' Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+         &lt;InlineUIContainer&gt;&lt;Image Source='../images/AmuletAntiPoison.gif' Name='Possession' Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r188 Pegasus Mount&lt;/Bold&gt;
@@ -3083,7 +3181,7 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 You can use the Pegasus as a normal mount on the ground if desired. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                   &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Pegasus.gif' Name='Possession' Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                   &lt;InlineUIContainer&gt;&lt;Image Source='../images/Pegasus.gif' Name='Possession' Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r188a Pegasus Talisman&lt;/Bold&gt;
@@ -3093,7 +3191,7 @@
 Whenever you have any magician, wizard, witch, priest, or monk in your party; they can help you use the talisman to call upon an actual Pegasus winged mount. It will immediately appear and serve as your mount
  &lt;InlineUIContainer&gt;&lt;Button Content='r188' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                   &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/TalismanPegasus.gif' Name='Possession' Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                   &lt;InlineUIContainer&gt;&lt;Image Source='../images/TalismanPegasus.gif' Name='Possession' Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;e189 Charisma Talisman&lt;/Bold&gt;
@@ -3101,7 +3199,7 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;This talisman does not improve your wit and wiles when trying to evade, hide, attack, or surprise. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Like many magical devices, this talisman's spell may eventually wear out. After each use, roll two die. If the total is 12, it has worn out and must be discared. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                        &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/TalismanCharisma.gif' Name='Possession' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                        &lt;InlineUIContainer&gt;&lt;Image Source='../images/TalismanCharisma.gif' Name='Possession' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r190 Nerve Gas Bomb&lt;/Bold&gt;
@@ -3117,7 +3215,7 @@
 The jar with the gas is rather heavy. It counts as one load to transport
  &lt;InlineUIContainer&gt;&lt;Button Content='r206' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                   &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/NerveGasBomb.gif' Name='Possession' Height='300' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                                   &lt;InlineUIContainer&gt;&lt;Image Source='../images/NerveGasBomb.gif' Name='Possession' Height='300' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r191 Resistance Ring&lt;/Bold&gt;
@@ -3130,7 +3228,7 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 The ring can be used to ward poison wounds like normal wounds. The ring can also be used to ward magic attacks against the wearer, but it will not protect others in the party. In a magic attack, two rolls must be made, and the single worst result to the wearer is applied.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                  &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/RingResistence.gif' Name='Possession' Height='200' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                                  &lt;InlineUIContainer&gt;&lt;Image Source='../images/RingResistence.gif' Name='Possession' Height='200' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r192 Resurrection Necklace&lt;/Bold&gt;
@@ -3146,7 +3244,7 @@
  &lt;InlineUIContainer&gt;&lt;Button Content='r211' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
  with Count Dragot. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                             &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Necklace.gif' Name='Possession' Height='200' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                             &lt;InlineUIContainer&gt;&lt;Image Source='../images/Necklace.gif' Name='Possession' Height='200' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r193 Shield of Light&lt;/Bold&gt;
@@ -3154,7 +3252,7 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;At the end of each combat where the shield is used, roll one die. If a 6 is rolled, the shield is so banged and damaged by battle that it is now useless.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;To preserve the shield, you may elect to not use it in some combats. You can change your mind during the battle but must then check for damage after the battle. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                 &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Shield.gif' Name='Possession' Height='200' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                                 &lt;InlineUIContainer&gt;&lt;Image Source='../images/Shield.gif' Name='Possession' Height='200' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r194 Royal Helm of Northlands&lt;/Bold&gt;
@@ -3166,7 +3264,7 @@
  towns with the helm, you will instantly be hailed as the rightful King of the Northlands and win the game!
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;In the meantime, possession of the helm increases your stature and self-confidence. Increase your wit and wiles by one.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                   &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Helmet.gif' Name='Possession' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                   &lt;InlineUIContainer&gt;&lt;Image Source='../images/Helmet.gif' Name='Possession' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;Bold&gt;r203a Prison Escape Attempt&lt;/Bold&gt;
@@ -3175,7 +3273,7 @@
  &lt;InlineUIContainer&gt;&lt;Button Content='r218' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
  to determine where you end up. The escape takes the entire day and after you must prepare for the evening meals
  &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;                                   &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/JailBreak.gif' Height='250'  Width='250'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;                                   &lt;InlineUIContainer&gt;&lt;Image Source='../images/JailBreak.gif' Height='250'  Width='250'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
 </t>
   </si>
   <si>
@@ -3183,105 +3281,7 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;The gods declare your cause a religious crusade and the Staff of Command is passed into your hands. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;If you bring this possession to any hex north of the, you will command instant obedience throughout the Norhlands, regain your throne, and win the game! 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-              &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Staff.gif' Height='300' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r107 Falcon Scout&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;At the evening meal each day, if you offer the falcon a food unit, roll the die. If you roll anyhing other than a six, the falcon will remain throughout tomorrow with your party as a guide. You cannot get lost when you have the falcon.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                        &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Falcon.gif' Height='188' Width='250'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r215c Populated Regions and Hunting&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you must hunt in a farmland hex, each time you roll one die for a possible event, which occurs after the hunt is finished, but before the evening meal is eaten: 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt; 1,2,3,4-Do nothing.
-&lt;LineBreak/&gt; 5-Peasant mob in pursuit
- &lt;InlineUIContainer&gt;&lt;Button Content='e017' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt; 6-Pursued by constabulary
- &lt;InlineUIContainer&gt;&lt;Button Content='e050' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Hunting is prohibited in any hex with a town, castle, or temple.</t>
-  </si>
-  <si>
-    <t>r049</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r049 Travelling Minstrel&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You have a musician that has joined your party.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If he is fed, he will sing a tale that night that prevents any of your party from deserting no matter what happened today.  This applies even if your followers are not properly fed or lodged.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;When at the evening meal, click his image to start him singing to prevent desertions. However, when he sings, he leaves the next day.
-&lt;LineBreak/&gt; &lt;LineBreak/&gt; 
-                               &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/Minstrel.gif' Height='280' Width='140'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
-    <t>r146a</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;e146a Stealing Count Drogat Jewels&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Using the foulbane in Drogat Castle, you can spend a &lt;Bold&gt;Steal Gems&lt;/Bold&gt; action instead of a normal daily action in arranging for a special theft of the Count's personnel jewels.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;At the end of the day, you escape from the hex
- &lt;InlineUIContainer&gt;&lt;Button Content='r218' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- with wealth 110. However, you can never return to the castle hex due to the Count's anger. In the process of the theft, you might acquire magic items as part of the wealth 110 check. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                      &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/CountDrogatJewels.gif' Name='CountDrogatJewels' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r216 Starvation&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you cannot provide food each day for characters or mounts, startvation will begin to affect their loyalty and performance. Each food unit is sufficient to feed one person for one day. Mounts require two units per day if they are unable to forage for their own fodder. In a desert hext with no oasis, the food requirement doubles for men and mounts to represent the need to also carry water supplies.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-  &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR216a' Content='r216a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- Follower Starvation&lt;LineBreak/&gt;
-  &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR216b' Content='r216b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- Character Starvation&lt;LineBreak/&gt;
-  &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR216c' Content='r216c' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- Mount Starvation</t>
-  </si>
-  <si>
-    <t>r144i</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r144i Baron Hauldra Sneak Attack&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-You can make a sneak attack on the Baron at night suprising his traditional six bodyguards &lt;InlineUIContainer&gt; &lt;Button Content='r220' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Each has combat skill 6 and endurance 6. Once you kill the bodyguards, you can attack the Baron who has combat skill 6 and endurance 8. The Baron strikes first in combat. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                           &lt;InlineUIContainer&gt;&lt;Image Source='../bin/Images/BodyGuard.gif' Height='350' Width='350'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r204 Travel&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You can travel to new hexes as a daily action
- &lt;InlineUIContainer&gt;&lt;Button Content='r203' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-. You travel by moving your party across the map, hex by hex. You cannot skip or jump any hex unless a special event allows it.
-&lt;LineBreak/&gt;
-&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204a' Content='r204a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Travel Speeds
-&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR205' Content='r205' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Getting Lost
-&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204b' Content='r204b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Travel Events
-&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204c' Content='r204c' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Roads
-&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204d' Content='r204d' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Airborne Travel
-&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204e' Content='r204e' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; River Crossings
-&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR204f' Content='r204f' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Travel Events and Time
-&lt;LineBreak/&gt; &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR206' Content='r206' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Transport</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r227a Plague Dust&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die and halve the results rounding upward.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You suffer these many wounds at the end of the day. You will continue to suffer the same number after every day.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;To determine recovery, roll one die after the sickness wounds are inflicted. If this second roll is 4+, you recover. Otherwise sickness continues.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Bold&gt;r200 How to Play&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;Italic&gt;Barbarian Prince&lt;/Italic&gt; is a dungeon cawler, self-paced, solo game. You play the game in days. Each day starts with your selecting a daily action
- &lt;InlineUIContainer&gt;&lt;Button Content='r203' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-, such as traveling to a new hex on the map. Depending on the action selected, you will be referred to a chart, where you roll one or two die. The dice roll and the chart may then indicate a special event section, when you then resolve.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;After all events are resolved for your daily action, you must eat your main evening meal as described in the food rules
- &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-, and if in a town, castle, or temple hex; you must also purchase lodging
- &lt;InlineUIContainer&gt;&lt;Button Name='myButtonR217' Content='r217' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;This ends the day, and you continue play with the start of the next day, where you select another action. The game continues until either you are killed or 70 days (10 weeks) elapse. If you have not won before the 70 days ends, the game is automatically lost!
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Many events may lead to fighting, described in the combat rules
- &lt;InlineUIContainer&gt;&lt;Button Content='r220' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-. You may also have additional characters
- &lt;InlineUIContainer&gt;&lt;Button Content='r201' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- join your party. These additinal characters are especially useful in fights, although some may have special knowleddge or abiliities useful in certain events. Magicians, wizards, witches, priests, and monks are especially useful people to have in your party. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;All events are self explanatory. Click the rules button that brings up dialogs on details. </t>
+              &lt;InlineUIContainer&gt;&lt;Image Source='../images/Staff.gif' Height='300' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
 </sst>
 </file>
@@ -3650,8 +3650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3681,7 +3681,7 @@
         <v>364</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -3689,7 +3689,7 @@
         <v>369</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -3702,10 +3702,10 @@
     </row>
     <row r="6" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -3713,7 +3713,7 @@
         <v>373</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -3721,7 +3721,7 @@
         <v>385</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -3729,7 +3729,7 @@
         <v>355</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -3745,7 +3745,7 @@
         <v>359</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -3753,7 +3753,7 @@
         <v>358</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -3761,7 +3761,7 @@
         <v>361</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -3769,7 +3769,7 @@
         <v>374</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -3777,7 +3777,7 @@
         <v>375</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -3785,7 +3785,7 @@
         <v>362</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -3793,7 +3793,7 @@
         <v>363</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -3801,7 +3801,7 @@
         <v>365</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -3809,7 +3809,7 @@
         <v>387</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -3817,7 +3817,7 @@
         <v>386</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -3825,7 +3825,7 @@
         <v>388</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -3833,7 +3833,7 @@
         <v>379</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -3841,7 +3841,7 @@
         <v>380</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -3849,7 +3849,7 @@
         <v>381</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -3857,7 +3857,7 @@
         <v>382</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -3865,7 +3865,7 @@
         <v>360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -3873,7 +3873,7 @@
         <v>377</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -3881,7 +3881,7 @@
         <v>368</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -3889,7 +3889,7 @@
         <v>367</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -3897,7 +3897,7 @@
         <v>371</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="360" x14ac:dyDescent="0.25">
@@ -3905,7 +3905,7 @@
         <v>372</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="375" x14ac:dyDescent="0.25">
@@ -3913,7 +3913,7 @@
         <v>370</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -3921,7 +3921,7 @@
         <v>389</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -3929,15 +3929,15 @@
         <v>390</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>453</v>
+        <v>403</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -3945,15 +3945,15 @@
         <v>397</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>450</v>
+        <v>401</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -3961,7 +3961,7 @@
         <v>334</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -3969,7 +3969,7 @@
         <v>335</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -3977,7 +3977,7 @@
         <v>332</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -3985,7 +3985,7 @@
         <v>336</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -3993,7 +3993,7 @@
         <v>337</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4001,7 +4001,7 @@
         <v>338</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4009,7 +4009,7 @@
         <v>326</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4017,7 +4017,7 @@
         <v>339</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -4025,7 +4025,7 @@
         <v>340</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4033,7 +4033,7 @@
         <v>343</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4041,7 +4041,7 @@
         <v>323</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -4049,7 +4049,7 @@
         <v>341</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -4057,7 +4057,7 @@
         <v>327</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -4065,7 +4065,7 @@
         <v>328</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -4073,7 +4073,7 @@
         <v>329</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -4081,7 +4081,7 @@
         <v>330</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -4089,7 +4089,7 @@
         <v>19</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>457</v>
+        <v>406</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -4121,7 +4121,7 @@
         <v>346</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -4129,7 +4129,7 @@
         <v>16</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>455</v>
+        <v>404</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -4409,7 +4409,7 @@
         <v>391</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -4457,7 +4457,7 @@
         <v>8</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4489,7 +4489,7 @@
         <v>12</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4697,7 +4697,7 @@
         <v>89</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>456</v>
+        <v>405</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="165" x14ac:dyDescent="0.25">
